--- a/set_up_grasp_models/tests/test_files/test_set_up_models/set_up_model/model_v4_manual.xlsx
+++ b/set_up_grasp_models/tests/test_files/test_set_up_models/set_up_model/model_v4_manual.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
@@ -13,14 +13,13 @@
     <sheet name="thermoMets" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="mets" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="rxns" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="splitRatios" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="poolConst" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="thermo_ineq_constraints" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="thermoRxns" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="measRates" sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="protData" sheetId="11" state="visible" r:id="rId12"/>
-    <sheet name="metsData" sheetId="12" state="visible" r:id="rId13"/>
-    <sheet name="kinetics1" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="poolConst" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="thermo_ineq_constraints" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="thermoRxns" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="measRates" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="protData" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="metsData" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="kinetics1" sheetId="12" state="visible" r:id="rId13"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1068" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="296">
   <si>
     <t xml:space="preserve">General Reaction and Sampling Platform (GRASP)</t>
   </si>
@@ -403,15 +402,6 @@
     <t xml:space="preserve">balanced?</t>
   </si>
   <si>
-    <t xml:space="preserve">active?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">constant?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">measured?</t>
-  </si>
-  <si>
     <t xml:space="preserve">D-glucose extracellular</t>
   </si>
   <si>
@@ -550,9 +540,6 @@
     <t xml:space="preserve">transport reaction?</t>
   </si>
   <si>
-    <t xml:space="preserve">modelled?</t>
-  </si>
-  <si>
     <t xml:space="preserve">isoenzymes</t>
   </si>
   <si>
@@ -724,45 +711,6 @@
     <t xml:space="preserve">subunits</t>
   </si>
   <si>
-    <t xml:space="preserve">mechanism_refs_type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mechanism_refs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">inhibitors_refs_type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">inhibitors_refs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">activators_refs_type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">activators_refs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">negative_effectors_refs_type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">negative_effectors_refs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">positive_effectors_refs_type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">positive_effectors_refs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">subunits_refs_type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">subunits_refs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">comments</t>
-  </si>
-  <si>
     <t xml:space="preserve">diffusion</t>
   </si>
   <si>
@@ -772,15 +720,6 @@
     <t xml:space="preserve">m_glc_D_p</t>
   </si>
   <si>
-    <t xml:space="preserve">doi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1093/nar/gkv1049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">diffusion setting subunits to 1</t>
-  </si>
-  <si>
     <t xml:space="preserve">orderedBiTer</t>
   </si>
   <si>
@@ -790,12 +729,6 @@
     <t xml:space="preserve">m_adp_c m_pi_c m_glc_D_c</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1146/annurev.biochem.73.011303.073626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">assumed subunits</t>
-  </si>
-  <si>
     <t xml:space="preserve">randomBiBi</t>
   </si>
   <si>
@@ -805,12 +738,6 @@
     <t xml:space="preserve">m_adp_c m_g6p_c</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1016/0003-9861(72)90354-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">looks like 1 subunit from metacyc</t>
-  </si>
-  <si>
     <t xml:space="preserve">uniUni</t>
   </si>
   <si>
@@ -820,9 +747,6 @@
     <t xml:space="preserve">m_adp_c m_6pgc_c</t>
   </si>
   <si>
-    <t xml:space="preserve">PMID</t>
-  </si>
-  <si>
     <t xml:space="preserve">2dhglcn_p</t>
   </si>
   <si>
@@ -862,12 +786,6 @@
     <t xml:space="preserve">m_glcn_p m_q8h2_c</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1021/ja204637d 10.1021/bi00368a031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1016/j.ijbiomac.2018.06.097</t>
-  </si>
-  <si>
     <t xml:space="preserve">m_q8_c m_glcn_p</t>
   </si>
   <si>
@@ -883,21 +801,6 @@
     <t xml:space="preserve">m_nadph_c m_nadh_c</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1016/0003-9861(83)90546-5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PMID PMID PMID; PMID PMID PMID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">468836 4154934 7350909; 468836 4154934 7350909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PMID PMID PMID PMID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1257 468836 4154934 7350909</t>
-  </si>
-  <si>
     <t xml:space="preserve">G6PDH2CompInhib</t>
   </si>
   <si>
@@ -925,9 +828,6 @@
     <t xml:space="preserve">R_GND_nad R_GND_nadp</t>
   </si>
   <si>
-    <t xml:space="preserve">assumed subunits, ecocyc says 2</t>
-  </si>
-  <si>
     <t xml:space="preserve">m_6pgc_c m_nadp_c </t>
   </si>
   <si>
@@ -937,57 +837,27 @@
     <t xml:space="preserve">m_ru5p_D_c</t>
   </si>
   <si>
-    <t xml:space="preserve">link PMID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.rcsb.org/structure/4x84 12517338</t>
-  </si>
-  <si>
     <t xml:space="preserve">m_xu5p_D_c</t>
   </si>
   <si>
-    <t xml:space="preserve">DOI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1093/nar/gky1048</t>
-  </si>
-  <si>
     <t xml:space="preserve">m_r5p_c m_xu5p_D_c</t>
   </si>
   <si>
     <t xml:space="preserve">m_g3p_c m_s7p_c</t>
   </si>
   <si>
-    <t xml:space="preserve">Link PMID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.rcsb.org/structure/4XEU 17914867</t>
-  </si>
-  <si>
     <t xml:space="preserve">m_xu5p_D_c m_e4p_c</t>
   </si>
   <si>
     <t xml:space="preserve">m_g3p_c m_f6p_c</t>
   </si>
   <si>
-    <t xml:space="preserve">assumed subunits, ecocyc says 1</t>
-  </si>
-  <si>
     <t xml:space="preserve">m_s7p_c m_g3p_c</t>
   </si>
   <si>
     <t xml:space="preserve">m_e4pc_m_f6p_c</t>
   </si>
   <si>
-    <t xml:space="preserve">DOI PMID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1093/nar/gky1048 8805555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">same as in e. coli and some other organisms in brenda</t>
-  </si>
-  <si>
     <t xml:space="preserve">uniUniActivTwoTracks</t>
   </si>
   <si>
@@ -997,51 +867,18 @@
     <t xml:space="preserve">m_g3p_c m_pyr_c</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1016/S1874-6047(08)60452-7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">assumed subunits, ecocyc says 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">link</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://swissmodel.expasy.org/repository/uniprot/Q88DW7?csm=06BDB4FD62122707</t>
-  </si>
-  <si>
     <t xml:space="preserve">orderedUniBi</t>
   </si>
   <si>
     <t xml:space="preserve">m_f6p_c m_pi_c</t>
   </si>
   <si>
-    <t xml:space="preserve">https://swissmodel.expasy.org/repository/uniprot/A0A179SBB4?csm=0FE090106D1DEB39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">assumed subunits, ecocyc says 4 for fbp1 and 2 for fbp2</t>
-  </si>
-  <si>
     <t xml:space="preserve">orderedBiUni</t>
   </si>
   <si>
     <t xml:space="preserve">m_dhap_c m_g3p_c</t>
   </si>
   <si>
-    <t xml:space="preserve">doi PMID PMID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1016/0006-3002(58)90242-7 10712619 2649077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1016/j.pep.2011.06.020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">assumed subunits, ecocyc says 10 for fba1 and 2 for fba2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1007/s00018-010-0473-9</t>
-  </si>
-  <si>
     <t xml:space="preserve">orderedTerBi</t>
   </si>
   <si>
@@ -1051,27 +888,12 @@
     <t xml:space="preserve">m_13dpg_c m_nadh_c</t>
   </si>
   <si>
-    <t xml:space="preserve">assumed subunits, ecocyc says 24</t>
-  </si>
-  <si>
     <t xml:space="preserve">m_adp_c m_13dpg_c</t>
   </si>
   <si>
     <t xml:space="preserve">m_3pg_c m_atp_c</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1074/jbc.275.15.11147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PMID PMID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17085493 10437801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">assumed subunits, ecocyc says 2 for 23dpg-dependent and 1 for independent</t>
-  </si>
-  <si>
     <t xml:space="preserve">m_adp_c m_pep_c</t>
   </si>
   <si>
@@ -1081,33 +903,12 @@
     <t xml:space="preserve">m_2ddg6p_c m_r5p_c m_f6p_c</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1111/j.0022-3646.1992.00472.x</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PMID PMID PMID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">468836 468836 468836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">assumed subunits, ecocyc says 4</t>
-  </si>
-  <si>
     <t xml:space="preserve">orderedTerUni</t>
   </si>
   <si>
     <t xml:space="preserve">m_h2o2_c m_gthrd_c m_gthrd_c</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1016/j.bbagen.2012.09.018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">doi doi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1016/j.bbagen.2012.09.018 10.1093/emboj/cdf670</t>
-  </si>
-  <si>
     <t xml:space="preserve">pingPongUniUniUniBi</t>
   </si>
   <si>
@@ -1118,9 +919,6 @@
   </si>
   <si>
     <t xml:space="preserve">massAction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">massAction setting subunits to 1</t>
   </si>
 </sst>
 </file>
@@ -1255,7 +1053,7 @@
   </sheetPr>
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -1379,883 +1177,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:E50"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.53"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B2" s="0" t="n">
-        <v>6140</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>611</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>6140</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B3" s="0" t="n">
-        <v>630</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <v>60</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>630</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B4" s="0" t="n">
-        <v>630</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>630</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B5" s="0" t="n">
-        <v>4790</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>70</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>4790</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B6" s="0" t="n">
-        <v>4790</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>70</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>4790</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>720</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>60</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>720</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B8" s="0" t="n">
-        <v>720</v>
-      </c>
-      <c r="C8" s="0" t="n">
-        <v>60</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>720</v>
-      </c>
-      <c r="E8" s="0" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B9" s="0" t="n">
-        <v>360</v>
-      </c>
-      <c r="C9" s="0" t="n">
-        <v>60</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>360</v>
-      </c>
-      <c r="E9" s="0" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B10" s="0" t="n">
-        <v>360</v>
-      </c>
-      <c r="C10" s="0" t="n">
-        <v>60</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>360</v>
-      </c>
-      <c r="E10" s="0" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B11" s="0" t="n">
-        <v>5510</v>
-      </c>
-      <c r="C11" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>5510</v>
-      </c>
-      <c r="E11" s="0" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B12" s="0" t="n">
-        <v>720</v>
-      </c>
-      <c r="C12" s="0" t="n">
-        <v>60</v>
-      </c>
-      <c r="D12" s="0" t="n">
-        <v>720</v>
-      </c>
-      <c r="E12" s="0" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B13" s="0" t="n">
-        <v>585</v>
-      </c>
-      <c r="C13" s="0" t="n">
-        <v>70</v>
-      </c>
-      <c r="D13" s="0" t="n">
-        <v>585</v>
-      </c>
-      <c r="E13" s="0" t="n">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B14" s="0" t="n">
-        <v>292.5</v>
-      </c>
-      <c r="C14" s="0" t="n">
-        <v>70</v>
-      </c>
-      <c r="D14" s="0" t="n">
-        <v>292.5</v>
-      </c>
-      <c r="E14" s="0" t="n">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B15" s="0" t="n">
-        <v>292.5</v>
-      </c>
-      <c r="C15" s="0" t="n">
-        <v>70</v>
-      </c>
-      <c r="D15" s="0" t="n">
-        <v>292.5</v>
-      </c>
-      <c r="E15" s="0" t="n">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B16" s="0" t="n">
-        <v>1170</v>
-      </c>
-      <c r="C16" s="0" t="n">
-        <v>70</v>
-      </c>
-      <c r="D16" s="0" t="n">
-        <v>1170</v>
-      </c>
-      <c r="E16" s="0" t="n">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B17" s="0" t="n">
-        <v>295</v>
-      </c>
-      <c r="C17" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="D17" s="0" t="n">
-        <v>295</v>
-      </c>
-      <c r="E17" s="0" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B18" s="0" t="n">
-        <v>295</v>
-      </c>
-      <c r="C18" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="D18" s="0" t="n">
-        <v>295</v>
-      </c>
-      <c r="E18" s="0" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B19" s="0" t="n">
-        <v>440</v>
-      </c>
-      <c r="C19" s="0" t="n">
-        <v>590</v>
-      </c>
-      <c r="D19" s="0" t="n">
-        <v>440</v>
-      </c>
-      <c r="E19" s="0" t="n">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B20" s="0" t="n">
-        <v>150</v>
-      </c>
-      <c r="C20" s="0" t="n">
-        <v>590</v>
-      </c>
-      <c r="D20" s="0" t="n">
-        <v>150</v>
-      </c>
-      <c r="E20" s="0" t="n">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B21" s="0" t="n">
-        <v>150</v>
-      </c>
-      <c r="C21" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="D21" s="0" t="n">
-        <v>150</v>
-      </c>
-      <c r="E21" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B22" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="C22" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="D22" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="E22" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B23" s="0" t="n">
-        <v>150</v>
-      </c>
-      <c r="C23" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="D23" s="0" t="n">
-        <v>150</v>
-      </c>
-      <c r="E23" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B24" s="0" t="n">
-        <v>6110</v>
-      </c>
-      <c r="C24" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="D24" s="0" t="n">
-        <v>6110</v>
-      </c>
-      <c r="E24" s="0" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B25" s="0" t="n">
-        <v>6110</v>
-      </c>
-      <c r="C25" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="D25" s="0" t="n">
-        <v>6110</v>
-      </c>
-      <c r="E25" s="0" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B26" s="0" t="n">
-        <v>570</v>
-      </c>
-      <c r="C26" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="D26" s="0" t="n">
-        <v>570</v>
-      </c>
-      <c r="E26" s="0" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B27" s="0" t="n">
-        <v>460</v>
-      </c>
-      <c r="C27" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="D27" s="0" t="n">
-        <v>460</v>
-      </c>
-      <c r="E27" s="0" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B28" s="0" t="n">
-        <v>460</v>
-      </c>
-      <c r="C28" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="D28" s="0" t="n">
-        <v>460</v>
-      </c>
-      <c r="E28" s="0" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B29" s="0" t="n">
-        <v>460</v>
-      </c>
-      <c r="C29" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="D29" s="0" t="n">
-        <v>460</v>
-      </c>
-      <c r="E29" s="0" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B30" s="0" t="n">
-        <v>5110</v>
-      </c>
-      <c r="C30" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="D30" s="0" t="n">
-        <v>5110</v>
-      </c>
-      <c r="E30" s="0" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B31" s="0" t="n">
-        <v>5110</v>
-      </c>
-      <c r="C31" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="D31" s="0" t="n">
-        <v>5110</v>
-      </c>
-      <c r="E31" s="0" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B32" s="0" t="n">
-        <v>4360</v>
-      </c>
-      <c r="C32" s="0" t="n">
-        <v>70</v>
-      </c>
-      <c r="D32" s="0" t="n">
-        <v>4360</v>
-      </c>
-      <c r="E32" s="0" t="n">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B33" s="0" t="n">
-        <v>4360</v>
-      </c>
-      <c r="C33" s="0" t="n">
-        <v>70</v>
-      </c>
-      <c r="D33" s="0" t="n">
-        <v>4360</v>
-      </c>
-      <c r="E33" s="0" t="n">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B34" s="0" t="n">
-        <v>3890</v>
-      </c>
-      <c r="C34" s="0" t="n">
-        <v>80</v>
-      </c>
-      <c r="D34" s="0" t="n">
-        <v>3890</v>
-      </c>
-      <c r="E34" s="0" t="n">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B35" s="0" t="n">
-        <v>700</v>
-      </c>
-      <c r="C35" s="0" t="n">
-        <v>70</v>
-      </c>
-      <c r="D35" s="0" t="n">
-        <v>700</v>
-      </c>
-      <c r="E35" s="0" t="n">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B36" s="0" t="n">
-        <v>700</v>
-      </c>
-      <c r="C36" s="0" t="n">
-        <v>70</v>
-      </c>
-      <c r="D36" s="0" t="n">
-        <v>700</v>
-      </c>
-      <c r="E36" s="0" t="n">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B37" s="0" t="n">
-        <v>2230</v>
-      </c>
-      <c r="C37" s="0" t="n">
-        <v>223</v>
-      </c>
-      <c r="D37" s="0" t="n">
-        <v>2230</v>
-      </c>
-      <c r="E37" s="0" t="n">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B38" s="0" t="n">
-        <v>5337.5</v>
-      </c>
-      <c r="C38" s="0" t="n">
-        <v>533.75</v>
-      </c>
-      <c r="D38" s="0" t="n">
-        <v>5337.5</v>
-      </c>
-      <c r="E38" s="0" t="n">
-        <v>533.75</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B39" s="0" t="n">
-        <v>312.5</v>
-      </c>
-      <c r="C39" s="0" t="n">
-        <v>31.25</v>
-      </c>
-      <c r="D39" s="0" t="n">
-        <v>312.5</v>
-      </c>
-      <c r="E39" s="0" t="n">
-        <v>31.25</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B40" s="0" t="n">
-        <v>10000</v>
-      </c>
-      <c r="C40" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="D40" s="0" t="n">
-        <v>10000</v>
-      </c>
-      <c r="E40" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B41" s="0" t="n">
-        <v>470</v>
-      </c>
-      <c r="C41" s="0" t="n">
-        <v>47</v>
-      </c>
-      <c r="D41" s="0" t="n">
-        <v>470</v>
-      </c>
-      <c r="E41" s="0" t="n">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B42" s="0" t="n">
-        <v>700</v>
-      </c>
-      <c r="C42" s="0" t="n">
-        <v>70</v>
-      </c>
-      <c r="D42" s="0" t="n">
-        <v>700</v>
-      </c>
-      <c r="E42" s="0" t="n">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B43" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="C43" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="D43" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="E43" s="0" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B44" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="C44" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="D44" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E44" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B45" s="0" t="n">
-        <v>290</v>
-      </c>
-      <c r="C45" s="0" t="n">
-        <v>29</v>
-      </c>
-      <c r="D45" s="0" t="n">
-        <v>290</v>
-      </c>
-      <c r="E45" s="0" t="n">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B46" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="C46" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D46" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="E46" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B47" s="0" t="n">
-        <v>90</v>
-      </c>
-      <c r="C47" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="D47" s="0" t="n">
-        <v>90</v>
-      </c>
-      <c r="E47" s="0" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B48" s="0" t="n">
-        <v>140</v>
-      </c>
-      <c r="C48" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="D48" s="0" t="n">
-        <v>140</v>
-      </c>
-      <c r="E48" s="0" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B49" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="C49" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="D49" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="E49" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B50" s="0" t="n">
-        <v>750</v>
-      </c>
-      <c r="C50" s="0" t="n">
-        <v>75</v>
-      </c>
-      <c r="D50" s="0" t="n">
-        <v>750</v>
-      </c>
-      <c r="E50" s="0" t="n">
-        <v>75</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -2273,16 +1194,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2982,7 +1903,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -3003,13 +1924,13 @@
         <v>118</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3737,180 +2658,127 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:X50"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AX1" activeCellId="0" sqref="AX1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.53"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>243</v>
+        <v>226</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>244</v>
+        <v>227</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>245</v>
+        <v>228</v>
       </c>
       <c r="K2" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="L2" s="0" t="s">
-        <v>246</v>
-      </c>
-      <c r="M2" s="0" t="s">
-        <v>247</v>
-      </c>
-      <c r="X2" s="0" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>249</v>
+        <v>229</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>251</v>
+        <v>231</v>
       </c>
       <c r="K3" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="L3" s="0" t="s">
-        <v>246</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>252</v>
-      </c>
-      <c r="X3" s="0" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>254</v>
+        <v>232</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>255</v>
+        <v>233</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
       <c r="K4" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="L4" s="0" t="s">
-        <v>246</v>
-      </c>
-      <c r="M4" s="0" t="s">
-        <v>257</v>
-      </c>
-      <c r="X4" s="0" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>259</v>
+        <v>235</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>25</v>
@@ -3921,22 +2789,19 @@
       <c r="K5" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="X5" s="0" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>254</v>
+        <v>232</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>260</v>
+        <v>236</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>261</v>
+        <v>237</v>
       </c>
       <c r="H6" s="0" t="s">
         <v>56</v>
@@ -3947,31 +2812,16 @@
       <c r="K6" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="L6" s="0" t="s">
-        <v>246</v>
-      </c>
-      <c r="M6" s="0" t="s">
-        <v>257</v>
-      </c>
-      <c r="R6" s="0" t="s">
-        <v>262</v>
-      </c>
-      <c r="S6" s="0" t="n">
-        <v>5470828</v>
-      </c>
-      <c r="X6" s="0" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>259</v>
+        <v>235</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>263</v>
+        <v>238</v>
       </c>
       <c r="D7" s="0" t="s">
         <v>29</v>
@@ -3979,140 +2829,113 @@
       <c r="K7" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="X7" s="0" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>264</v>
+        <v>239</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>265</v>
+        <v>240</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>266</v>
+        <v>241</v>
       </c>
       <c r="K8" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="X8" s="0" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>267</v>
+        <v>242</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>268</v>
+        <v>243</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>269</v>
+        <v>244</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>270</v>
+        <v>245</v>
       </c>
       <c r="K9" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>267</v>
+        <v>242</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>271</v>
+        <v>246</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>272</v>
+        <v>247</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>270</v>
+        <v>245</v>
       </c>
       <c r="K10" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="X10" s="0" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>273</v>
+        <v>248</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>274</v>
+        <v>249</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>275</v>
+        <v>250</v>
       </c>
       <c r="K11" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="L11" s="0" t="s">
-        <v>246</v>
-      </c>
-      <c r="M11" s="0" t="s">
-        <v>276</v>
-      </c>
-      <c r="V11" s="0" t="s">
-        <v>246</v>
-      </c>
-      <c r="W11" s="0" t="s">
-        <v>277</v>
-      </c>
-      <c r="X11" s="0" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>264</v>
+        <v>239</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>278</v>
+        <v>251</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>279</v>
+        <v>252</v>
       </c>
       <c r="K12" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="X12" s="0" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>264</v>
+        <v>239</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>280</v>
+        <v>253</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>281</v>
+        <v>254</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>282</v>
+        <v>255</v>
       </c>
       <c r="I13" s="0" t="s">
         <v>24</v>
@@ -4123,55 +2946,25 @@
       <c r="K13" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="L13" s="0" t="s">
-        <v>246</v>
-      </c>
-      <c r="M13" s="0" t="s">
-        <v>283</v>
-      </c>
-      <c r="N13" s="0" t="s">
-        <v>284</v>
-      </c>
-      <c r="O13" s="0" t="s">
-        <v>285</v>
-      </c>
-      <c r="R13" s="0" t="s">
-        <v>286</v>
-      </c>
-      <c r="S13" s="0" t="s">
-        <v>287</v>
-      </c>
-      <c r="T13" s="0" t="s">
-        <v>262</v>
-      </c>
-      <c r="U13" s="0" t="n">
-        <v>6815421</v>
-      </c>
-      <c r="V13" s="0" t="s">
-        <v>262</v>
-      </c>
-      <c r="W13" s="0" t="n">
-        <v>6815421</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>81</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>288</v>
+        <v>256</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>289</v>
+        <v>257</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>290</v>
+        <v>258</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>291</v>
+        <v>259</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>292</v>
+        <v>260</v>
       </c>
       <c r="H14" s="0" t="s">
         <v>20</v>
@@ -4185,55 +2978,25 @@
       <c r="K14" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="L14" s="0" t="s">
-        <v>246</v>
-      </c>
-      <c r="M14" s="0" t="s">
-        <v>283</v>
-      </c>
-      <c r="N14" s="0" t="s">
-        <v>284</v>
-      </c>
-      <c r="O14" s="0" t="s">
-        <v>285</v>
-      </c>
-      <c r="R14" s="0" t="s">
-        <v>286</v>
-      </c>
-      <c r="S14" s="0" t="s">
-        <v>287</v>
-      </c>
-      <c r="T14" s="0" t="s">
-        <v>262</v>
-      </c>
-      <c r="U14" s="0" t="n">
-        <v>6815421</v>
-      </c>
-      <c r="V14" s="0" t="s">
-        <v>262</v>
-      </c>
-      <c r="W14" s="0" t="n">
-        <v>6815421</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>288</v>
+        <v>256</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>280</v>
+        <v>253</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>281</v>
+        <v>254</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>291</v>
+        <v>259</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>282</v>
+        <v>255</v>
       </c>
       <c r="H15" s="0" t="s">
         <v>20</v>
@@ -4247,41 +3010,8 @@
       <c r="K15" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="L15" s="0" t="s">
-        <v>246</v>
-      </c>
-      <c r="M15" s="0" t="s">
-        <v>283</v>
-      </c>
-      <c r="N15" s="0" t="s">
-        <v>284</v>
-      </c>
-      <c r="O15" s="0" t="s">
-        <v>285</v>
-      </c>
-      <c r="R15" s="0" t="s">
-        <v>286</v>
-      </c>
-      <c r="S15" s="0" t="s">
-        <v>287</v>
-      </c>
-      <c r="T15" s="0" t="s">
-        <v>262</v>
-      </c>
-      <c r="U15" s="0" t="n">
-        <v>6815421</v>
-      </c>
-      <c r="V15" s="0" t="s">
-        <v>262</v>
-      </c>
-      <c r="W15" s="0" t="n">
-        <v>6815421</v>
-      </c>
-      <c r="X15" s="0" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
         <v>83</v>
       </c>
@@ -4315,61 +3045,22 @@
       <c r="K16" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="L16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="S16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="T16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="U16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="V16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="W16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="X16" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
         <v>84</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>293</v>
+        <v>261</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>294</v>
+        <v>262</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>295</v>
+        <v>263</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>296</v>
+        <v>264</v>
       </c>
       <c r="F17" s="0" t="s">
         <v>33</v>
@@ -4377,43 +3068,22 @@
       <c r="K17" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="L17" s="0" t="s">
-        <v>262</v>
-      </c>
-      <c r="M17" s="0" t="n">
-        <v>19686854</v>
-      </c>
-      <c r="N17" s="0" t="s">
-        <v>262</v>
-      </c>
-      <c r="O17" s="0" t="n">
-        <v>4154932</v>
-      </c>
-      <c r="V17" s="0" t="s">
-        <v>262</v>
-      </c>
-      <c r="W17" s="0" t="n">
-        <v>19686854</v>
-      </c>
-      <c r="X17" s="0" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>293</v>
+        <v>261</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>298</v>
+        <v>265</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>299</v>
+        <v>266</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>296</v>
+        <v>264</v>
       </c>
       <c r="F18" s="0" t="s">
         <v>33</v>
@@ -4421,37 +3091,16 @@
       <c r="K18" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="L18" s="0" t="s">
-        <v>262</v>
-      </c>
-      <c r="M18" s="0" t="n">
-        <v>19686854</v>
-      </c>
-      <c r="N18" s="0" t="s">
-        <v>262</v>
-      </c>
-      <c r="O18" s="0" t="n">
-        <v>4154932</v>
-      </c>
-      <c r="V18" s="0" t="s">
-        <v>262</v>
-      </c>
-      <c r="W18" s="0" t="n">
-        <v>19686854</v>
-      </c>
-      <c r="X18" s="0" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>259</v>
+        <v>235</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>300</v>
+        <v>267</v>
       </c>
       <c r="D19" s="0" t="s">
         <v>40</v>
@@ -4459,141 +3108,84 @@
       <c r="K19" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="V19" s="0" t="s">
-        <v>301</v>
-      </c>
-      <c r="W19" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W19" s="2"/>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>259</v>
+        <v>235</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>300</v>
+        <v>267</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>303</v>
+        <v>268</v>
       </c>
       <c r="K20" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="V20" s="0" t="s">
-        <v>304</v>
-      </c>
-      <c r="W20" s="0" t="s">
-        <v>305</v>
-      </c>
-      <c r="X20" s="0" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>273</v>
+        <v>248</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>306</v>
+        <v>269</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>307</v>
+        <v>270</v>
       </c>
       <c r="K21" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="L21" s="0" t="s">
-        <v>262</v>
-      </c>
-      <c r="M21" s="0" t="n">
-        <v>17914867</v>
-      </c>
-      <c r="V21" s="0" t="s">
-        <v>308</v>
-      </c>
-      <c r="W21" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="X21" s="0" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W21" s="2"/>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>273</v>
+        <v>248</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>310</v>
+        <v>271</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>311</v>
+        <v>272</v>
       </c>
       <c r="K22" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="L22" s="0" t="s">
-        <v>262</v>
-      </c>
-      <c r="M22" s="0" t="n">
-        <v>17914867</v>
-      </c>
-      <c r="V22" s="0" t="s">
-        <v>308</v>
-      </c>
-      <c r="W22" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="X22" s="0" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W22" s="2"/>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B23" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="C23" s="0" t="s">
         <v>273</v>
       </c>
-      <c r="C23" s="0" t="s">
-        <v>313</v>
-      </c>
       <c r="D23" s="0" t="s">
-        <v>314</v>
+        <v>274</v>
       </c>
       <c r="K23" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="L23" s="0" t="s">
-        <v>262</v>
-      </c>
-      <c r="M23" s="0" t="n">
-        <v>8805555</v>
-      </c>
-      <c r="V23" s="0" t="s">
-        <v>315</v>
-      </c>
-      <c r="W23" s="0" t="s">
-        <v>316</v>
-      </c>
-      <c r="X23" s="0" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
         <v>91</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>318</v>
+        <v>275</v>
       </c>
       <c r="C24" s="0" t="s">
         <v>27</v>
@@ -4607,60 +3199,30 @@
       <c r="K24" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="N24" s="0" t="s">
-        <v>262</v>
-      </c>
-      <c r="O24" s="0" t="n">
-        <v>4154932</v>
-      </c>
-      <c r="V24" s="0" t="s">
-        <v>262</v>
-      </c>
-      <c r="W24" s="0" t="n">
-        <v>6326623</v>
-      </c>
-      <c r="X24" s="0" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
         <v>92</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>319</v>
+        <v>276</v>
       </c>
       <c r="C25" s="0" t="s">
         <v>46</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>320</v>
+        <v>277</v>
       </c>
       <c r="K25" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="L25" s="0" t="s">
-        <v>246</v>
-      </c>
-      <c r="M25" s="0" t="s">
-        <v>321</v>
-      </c>
-      <c r="V25" s="0" t="s">
-        <v>262</v>
-      </c>
-      <c r="W25" s="0" t="n">
-        <v>12876349</v>
-      </c>
-      <c r="X25" s="0" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>259</v>
+        <v>235</v>
       </c>
       <c r="C26" s="0" t="s">
         <v>24</v>
@@ -4671,51 +3233,35 @@
       <c r="K26" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="V26" s="0" t="s">
-        <v>323</v>
-      </c>
-      <c r="W26" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="X26" s="0" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W26" s="2"/>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
         <v>94</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>325</v>
+        <v>278</v>
       </c>
       <c r="C27" s="0" t="s">
         <v>48</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>326</v>
+        <v>279</v>
       </c>
       <c r="K27" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="V27" s="0" t="s">
-        <v>323</v>
-      </c>
-      <c r="W27" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="X27" s="0" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W27" s="2"/>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>329</v>
+        <v>280</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>330</v>
+        <v>281</v>
       </c>
       <c r="D28" s="0" t="s">
         <v>48</v>
@@ -4723,28 +3269,13 @@
       <c r="K28" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="L28" s="0" t="s">
-        <v>331</v>
-      </c>
-      <c r="M28" s="0" t="s">
-        <v>332</v>
-      </c>
-      <c r="V28" s="0" t="s">
-        <v>246</v>
-      </c>
-      <c r="W28" s="0" t="s">
-        <v>333</v>
-      </c>
-      <c r="X28" s="0" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
         <v>96</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>259</v>
+        <v>235</v>
       </c>
       <c r="C29" s="0" t="s">
         <v>42</v>
@@ -4755,28 +3286,19 @@
       <c r="K29" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="V29" s="0" t="s">
-        <v>246</v>
-      </c>
-      <c r="W29" s="0" t="s">
-        <v>335</v>
-      </c>
-      <c r="X29" s="0" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>336</v>
+        <v>282</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>337</v>
+        <v>283</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>338</v>
+        <v>284</v>
       </c>
       <c r="H30" s="0" t="s">
         <v>54</v>
@@ -4787,60 +3309,30 @@
       <c r="K30" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="L30" s="0" t="s">
-        <v>262</v>
-      </c>
-      <c r="M30" s="0" t="n">
-        <v>7447472</v>
-      </c>
-      <c r="V30" s="0" t="s">
-        <v>262</v>
-      </c>
-      <c r="W30" s="0" t="n">
-        <v>8636984</v>
-      </c>
-      <c r="X30" s="0" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>254</v>
+        <v>232</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>340</v>
+        <v>285</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>341</v>
+        <v>286</v>
       </c>
       <c r="K31" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="L31" s="0" t="s">
-        <v>262</v>
-      </c>
-      <c r="M31" s="0" t="n">
-        <v>5128739</v>
-      </c>
-      <c r="V31" s="0" t="s">
-        <v>246</v>
-      </c>
-      <c r="W31" s="0" t="s">
-        <v>342</v>
-      </c>
-      <c r="X31" s="0" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
         <v>99</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>259</v>
+        <v>235</v>
       </c>
       <c r="C32" s="0" t="s">
         <v>51</v>
@@ -4851,22 +3343,13 @@
       <c r="K32" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="V32" s="0" t="s">
-        <v>343</v>
-      </c>
-      <c r="W32" s="0" t="s">
-        <v>344</v>
-      </c>
-      <c r="X32" s="0" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
         <v>100</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>259</v>
+        <v>235</v>
       </c>
       <c r="C33" s="0" t="s">
         <v>52</v>
@@ -4877,31 +3360,22 @@
       <c r="K33" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="V33" s="0" t="s">
-        <v>262</v>
-      </c>
-      <c r="W33" s="0" t="n">
-        <v>9376357</v>
-      </c>
-      <c r="X33" s="0" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
         <v>101</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>264</v>
+        <v>239</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>346</v>
+        <v>287</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>347</v>
+        <v>288</v>
       </c>
       <c r="I34" s="0" t="s">
-        <v>348</v>
+        <v>289</v>
       </c>
       <c r="J34" s="0" t="n">
         <v>1</v>
@@ -4909,37 +3383,16 @@
       <c r="K34" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="L34" s="0" t="s">
-        <v>246</v>
-      </c>
-      <c r="M34" s="0" t="s">
-        <v>349</v>
-      </c>
-      <c r="T34" s="0" t="s">
-        <v>350</v>
-      </c>
-      <c r="U34" s="0" t="s">
-        <v>351</v>
-      </c>
-      <c r="V34" s="0" t="s">
-        <v>262</v>
-      </c>
-      <c r="W34" s="0" t="n">
-        <v>468836</v>
-      </c>
-      <c r="X34" s="0" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
         <v>102</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>353</v>
+        <v>290</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>354</v>
+        <v>291</v>
       </c>
       <c r="D35" s="0" t="s">
         <v>56</v>
@@ -4947,87 +3400,63 @@
       <c r="K35" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="L35" s="0" t="s">
-        <v>246</v>
-      </c>
-      <c r="M35" s="0" t="s">
-        <v>355</v>
-      </c>
-      <c r="V35" s="0" t="s">
-        <v>356</v>
-      </c>
-      <c r="W35" s="0" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
         <v>103</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>358</v>
+        <v>292</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>359</v>
+        <v>293</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>360</v>
+        <v>294</v>
       </c>
       <c r="K36" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="L36" s="0" t="s">
-        <v>246</v>
-      </c>
-      <c r="M36" s="0" t="s">
-        <v>355</v>
-      </c>
-      <c r="V36" s="0" t="s">
-        <v>246</v>
-      </c>
-      <c r="W36" s="0" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
         <v>104</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>361</v>
+        <v>295</v>
       </c>
       <c r="K37" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
         <v>105</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>361</v>
+        <v>295</v>
       </c>
       <c r="K38" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
         <v>106</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>361</v>
+        <v>295</v>
       </c>
       <c r="K39" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
         <v>107</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>361</v>
+        <v>295</v>
       </c>
       <c r="C40" s="0" t="s">
         <v>47</v>
@@ -5038,16 +3467,13 @@
       <c r="K40" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="X40" s="0" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
         <v>108</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>361</v>
+        <v>295</v>
       </c>
       <c r="C41" s="0" t="s">
         <v>53</v>
@@ -5058,16 +3484,13 @@
       <c r="K41" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="X41" s="0" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
         <v>109</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>361</v>
+        <v>295</v>
       </c>
       <c r="C42" s="0" t="s">
         <v>60</v>
@@ -5078,11 +3501,8 @@
       <c r="K42" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="X42" s="0" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
         <v>110</v>
       </c>
@@ -5116,47 +3536,8 @@
       <c r="K43" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="L43" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R43" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="S43" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="T43" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="U43" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="V43" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="W43" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="X43" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
         <v>111</v>
       </c>
@@ -5190,47 +3571,8 @@
       <c r="K44" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="L44" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R44" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="S44" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="T44" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="U44" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="V44" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="W44" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="X44" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
         <v>112</v>
       </c>
@@ -5264,47 +3606,8 @@
       <c r="K45" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="L45" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M45" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O45" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P45" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q45" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R45" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="S45" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="T45" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="U45" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="V45" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="W45" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="X45" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
         <v>113</v>
       </c>
@@ -5338,47 +3641,8 @@
       <c r="K46" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="L46" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R46" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="S46" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="T46" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="U46" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="V46" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="W46" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="X46" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
         <v>114</v>
       </c>
@@ -5412,47 +3676,8 @@
       <c r="K47" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="L47" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M47" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N47" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O47" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P47" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q47" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R47" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="S47" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="T47" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="U47" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="V47" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="W47" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="X47" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
         <v>115</v>
       </c>
@@ -5486,47 +3711,8 @@
       <c r="K48" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="L48" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M48" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N48" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O48" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P48" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q48" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R48" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="S48" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="T48" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="U48" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="V48" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="W48" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="X48" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
         <v>116</v>
       </c>
@@ -5560,47 +3746,8 @@
       <c r="K49" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="L49" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M49" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N49" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O49" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P49" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q49" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R49" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="S49" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="T49" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="U49" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="V49" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="W49" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="X49" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
         <v>117</v>
       </c>
@@ -5634,54 +3781,8 @@
       <c r="K50" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="L50" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M50" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N50" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O50" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P50" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q50" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R50" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="S50" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="T50" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="U50" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="V50" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="W50" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="X50" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="W19" r:id="rId1" display="https://www.rcsb.org/structure/4x84 12517338"/>
-    <hyperlink ref="W21" r:id="rId2" display="https://www.rcsb.org/structure/4XEU 17914867"/>
-    <hyperlink ref="W22" r:id="rId3" display="https://www.rcsb.org/structure/4XEU 17914867"/>
-    <hyperlink ref="W26" r:id="rId4" display="https://swissmodel.expasy.org/repository/uniprot/Q88DW7?csm=06BDB4FD62122707"/>
-    <hyperlink ref="W27" r:id="rId5" display="https://swissmodel.expasy.org/repository/uniprot/A0A179SBB4?csm=0FE090106D1DEB39"/>
-  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -14223,18 +12324,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F52"/>
+  <dimension ref="A1:C52"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="F16" activeCellId="0" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1021" min="1" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1022" style="0" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>118</v>
       </c>
@@ -14244,877 +12346,481 @@
       <c r="C1" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E17" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F19" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F20" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D22" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F22" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D23" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E23" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D24" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E24" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D25" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E25" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D26" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E26" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D27" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E27" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D28" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E28" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D29" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E29" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D30" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E30" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D31" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E31" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C32" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D32" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E32" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C33" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D33" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E33" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C34" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D34" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E34" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C35" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D35" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E35" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C36" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D36" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E36" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C37" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D37" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E37" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C38" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D38" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E38" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C39" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D39" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E39" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C40" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D40" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E40" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C41" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D41" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F41" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C42" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D42" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E42" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F42" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C43" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D43" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E43" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F43" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C44" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D44" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E44" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F44" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
         <v>61</v>
       </c>
@@ -15124,17 +12830,8 @@
       <c r="C45" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D45" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E45" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F45" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
         <v>62</v>
       </c>
@@ -15144,17 +12841,8 @@
       <c r="C46" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D46" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E46" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
         <v>63</v>
       </c>
@@ -15164,17 +12852,8 @@
       <c r="C47" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D47" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E47" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F47" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
         <v>64</v>
       </c>
@@ -15184,17 +12863,8 @@
       <c r="C48" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D48" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E48" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F48" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
         <v>65</v>
       </c>
@@ -15204,17 +12874,8 @@
       <c r="C49" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D49" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E49" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F49" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
         <v>66</v>
       </c>
@@ -15224,17 +12885,8 @@
       <c r="C50" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D50" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E50" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F50" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
         <v>67</v>
       </c>
@@ -15244,17 +12896,8 @@
       <c r="C51" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D51" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E51" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F51" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
         <v>68</v>
       </c>
@@ -15262,15 +12905,6 @@
         <v>0</v>
       </c>
       <c r="C52" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D52" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E52" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F52" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15290,618 +12924,493 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E50"/>
+  <dimension ref="A1:D50"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="1" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D2" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D3" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D4" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D5" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D6" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D7" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D8" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D9" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D10" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D11" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D12" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" s="0" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D13" s="0" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>81</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" s="0" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D14" s="0" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" s="0" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D15" s="0" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D16" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
         <v>84</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D17" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D18" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D19" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D20" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D21" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D22" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D23" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
         <v>91</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D24" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
         <v>92</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D25" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D26" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
         <v>94</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D27" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D28" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
         <v>96</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D29" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D30" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D31" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
         <v>99</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C32" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D32" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
         <v>100</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C33" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D33" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
         <v>101</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C34" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D34" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
         <v>102</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C35" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D35" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
         <v>103</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C36" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D36" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
         <v>104</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C37" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D37" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
         <v>105</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C38" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D38" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
         <v>106</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C39" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D39" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
         <v>107</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C40" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D40" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
         <v>108</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C41" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D41" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
         <v>109</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C42" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D42" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
         <v>110</v>
       </c>
@@ -15914,11 +13423,8 @@
       <c r="D43" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="E43" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
         <v>111</v>
       </c>
@@ -15931,11 +13437,8 @@
       <c r="D44" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="E44" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
         <v>112</v>
       </c>
@@ -15948,11 +13451,8 @@
       <c r="D45" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="E45" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
         <v>113</v>
       </c>
@@ -15965,11 +13465,8 @@
       <c r="D46" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="E46" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
         <v>114</v>
       </c>
@@ -15982,11 +13479,8 @@
       <c r="D47" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="E47" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
         <v>115</v>
       </c>
@@ -15999,11 +13493,8 @@
       <c r="D48" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="E48" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
         <v>116</v>
       </c>
@@ -16016,11 +13507,8 @@
       <c r="D49" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="E49" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
         <v>117</v>
       </c>
@@ -16031,9 +13519,6 @@
         <v>0</v>
       </c>
       <c r="D50" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E50" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16053,7 +13538,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:A51"/>
+  <dimension ref="A2:A53"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -16066,252 +13551,262 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>169</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>69</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>70</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>71</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>72</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>73</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>74</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>75</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>76</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>78</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>79</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>80</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>81</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>82</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>83</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>84</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>85</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>86</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>87</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>88</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>89</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>90</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>91</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>92</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>93</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>94</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>95</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>96</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>97</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>98</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>99</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>100</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>101</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>102</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>103</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>104</v>
+        <v>53</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>105</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>106</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>107</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>108</v>
+        <v>57</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>109</v>
+        <v>58</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>110</v>
+        <v>59</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>111</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>112</v>
+        <v>61</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>113</v>
+        <v>62</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>114</v>
+        <v>63</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>115</v>
+        <v>64</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>116</v>
+        <v>65</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>117</v>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -16617,7 +14112,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:A53"/>
+  <dimension ref="A1:C50"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -16628,264 +14123,554 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.53"/>
   </cols>
   <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>118</v>
+        <v>69</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>70</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>71</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>72</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>73</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>74</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>75</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>24</v>
+        <v>76</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>25</v>
+        <v>77</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>26</v>
+        <v>78</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>27</v>
+        <v>79</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>28</v>
+        <v>80</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>29</v>
+        <v>81</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>30</v>
+        <v>82</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>31</v>
+        <v>83</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>32</v>
+        <v>84</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>33</v>
+        <v>85</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>34</v>
+        <v>86</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>35</v>
+        <v>87</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>36</v>
+        <v>88</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>37</v>
+        <v>89</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>38</v>
+        <v>90</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>39</v>
+        <v>91</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>40</v>
+        <v>92</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>41</v>
+        <v>93</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>42</v>
+        <v>94</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>43</v>
+        <v>95</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>44</v>
+        <v>96</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>45</v>
+        <v>97</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>46</v>
+        <v>98</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>47</v>
+        <v>99</v>
+      </c>
+      <c r="B32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>48</v>
+        <v>100</v>
+      </c>
+      <c r="B33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>49</v>
+        <v>101</v>
+      </c>
+      <c r="B34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>50</v>
+        <v>102</v>
+      </c>
+      <c r="B35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>51</v>
+        <v>103</v>
+      </c>
+      <c r="B36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>52</v>
+        <v>104</v>
+      </c>
+      <c r="B37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>53</v>
+        <v>105</v>
+      </c>
+      <c r="B38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>54</v>
+        <v>106</v>
+      </c>
+      <c r="B39" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C39" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>55</v>
+        <v>107</v>
+      </c>
+      <c r="B40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C40" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>56</v>
+        <v>108</v>
+      </c>
+      <c r="B41" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>57</v>
+        <v>109</v>
+      </c>
+      <c r="B42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C42" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>58</v>
+        <v>110</v>
+      </c>
+      <c r="B43" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C43" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>59</v>
+        <v>111</v>
+      </c>
+      <c r="B44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>60</v>
+        <v>112</v>
+      </c>
+      <c r="B45" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C45" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>61</v>
+        <v>113</v>
+      </c>
+      <c r="B46" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C46" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>62</v>
+        <v>114</v>
+      </c>
+      <c r="B47" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C47" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>63</v>
+        <v>115</v>
+      </c>
+      <c r="B48" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C48" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>64</v>
+        <v>116</v>
+      </c>
+      <c r="B49" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C49" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="1" t="s">
-        <v>68</v>
+        <v>117</v>
+      </c>
+      <c r="B50" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C50" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -16907,562 +14692,563 @@
   <dimension ref="A1:C50"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1021" min="1" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1022" style="0" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>0</v>
+        <v>6140</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>0</v>
+        <v>630</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>0</v>
+        <v>630</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>0</v>
+        <v>4790</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>0</v>
+        <v>4790</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>0</v>
+        <v>720</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>0</v>
+        <v>720</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>0</v>
+        <v>360</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>0</v>
+        <v>360</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>0</v>
+        <v>5510</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>0</v>
+        <v>720</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>0</v>
+        <v>585</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>81</v>
       </c>
       <c r="B14" s="0" t="n">
-        <v>0</v>
+        <v>292.5</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B15" s="0" t="n">
-        <v>0</v>
+        <v>292.5</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B16" s="0" t="n">
-        <v>0</v>
+        <v>1170</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
         <v>84</v>
       </c>
       <c r="B17" s="0" t="n">
-        <v>0</v>
+        <v>295</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B18" s="0" t="n">
-        <v>0</v>
+        <v>295</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B19" s="0" t="n">
-        <v>0</v>
+        <v>440</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B20" s="0" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B21" s="0" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B22" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B23" s="0" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
         <v>91</v>
       </c>
       <c r="B24" s="0" t="n">
-        <v>0</v>
+        <v>6110</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
         <v>92</v>
       </c>
       <c r="B25" s="0" t="n">
-        <v>0</v>
+        <v>6110</v>
       </c>
       <c r="C25" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B26" s="0" t="n">
-        <v>0</v>
+        <v>570</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
         <v>94</v>
       </c>
       <c r="B27" s="0" t="n">
-        <v>0</v>
+        <v>460</v>
       </c>
       <c r="C27" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B28" s="0" t="n">
-        <v>0</v>
+        <v>460</v>
       </c>
       <c r="C28" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
         <v>96</v>
       </c>
       <c r="B29" s="0" t="n">
-        <v>0</v>
+        <v>460</v>
       </c>
       <c r="C29" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B30" s="0" t="n">
-        <v>0</v>
+        <v>5110</v>
       </c>
       <c r="C30" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B31" s="0" t="n">
-        <v>0</v>
+        <v>5110</v>
       </c>
       <c r="C31" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
         <v>99</v>
       </c>
       <c r="B32" s="0" t="n">
-        <v>0</v>
+        <v>4360</v>
       </c>
       <c r="C32" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
         <v>100</v>
       </c>
       <c r="B33" s="0" t="n">
-        <v>0</v>
+        <v>4360</v>
       </c>
       <c r="C33" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
         <v>101</v>
       </c>
       <c r="B34" s="0" t="n">
-        <v>0</v>
+        <v>3890</v>
       </c>
       <c r="C34" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
         <v>102</v>
       </c>
       <c r="B35" s="0" t="n">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="C35" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
         <v>103</v>
       </c>
       <c r="B36" s="0" t="n">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="C36" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
         <v>104</v>
       </c>
       <c r="B37" s="0" t="n">
-        <v>0</v>
+        <v>2230</v>
       </c>
       <c r="C37" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
         <v>105</v>
       </c>
       <c r="B38" s="0" t="n">
-        <v>0</v>
+        <v>5337.5</v>
       </c>
       <c r="C38" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>533.75</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
         <v>106</v>
       </c>
       <c r="B39" s="0" t="n">
-        <v>0</v>
+        <v>312.5</v>
       </c>
       <c r="C39" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>31.25</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
         <v>107</v>
       </c>
       <c r="B40" s="0" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="C40" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
         <v>108</v>
       </c>
       <c r="B41" s="0" t="n">
-        <v>0</v>
+        <v>470</v>
       </c>
       <c r="C41" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
         <v>109</v>
       </c>
       <c r="B42" s="0" t="n">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="C42" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
         <v>110</v>
       </c>
       <c r="B43" s="0" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C43" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
         <v>111</v>
       </c>
       <c r="B44" s="0" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C44" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
         <v>112</v>
       </c>
       <c r="B45" s="0" t="n">
-        <v>0</v>
+        <v>290</v>
       </c>
       <c r="C45" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
         <v>113</v>
       </c>
       <c r="B46" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C46" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
         <v>114</v>
       </c>
       <c r="B47" s="0" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="C47" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
         <v>115</v>
       </c>
       <c r="B48" s="0" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="C48" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
         <v>116</v>
       </c>
       <c r="B49" s="0" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C49" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
         <v>117</v>
       </c>
       <c r="B50" s="0" t="n">
-        <v>0</v>
+        <v>750</v>
       </c>
       <c r="C50" s="0" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/set_up_grasp_models/tests/test_files/test_set_up_models/set_up_model/model_v4_manual.xlsx
+++ b/set_up_grasp_models/tests/test_files/test_set_up_models/set_up_model/model_v4_manual.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="11"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="298">
   <si>
     <t xml:space="preserve">General Reaction and Sampling Platform (GRASP)</t>
   </si>
@@ -42,25 +42,40 @@
     <t xml:space="preserve">model_v4_manual</t>
   </si>
   <si>
-    <t xml:space="preserve">Sampling mode (ORACLE, rejection, rejectionSMC, SMC, MCMC-SMC)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ORACLE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NLP solver (NLOPT, OPTI, FMINCON (default))</t>
+    <t xml:space="preserve">Sampling mode (GRASP or rejection)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRASP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NLP solver (NLOPT or FMINCON (default))</t>
   </si>
   <si>
     <t xml:space="preserve">FMINCON</t>
   </si>
   <si>
+    <t xml:space="preserve">LP solver (linprog or gurobi)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gurobi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prior distribution for fluxes (uniform or normal)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">normal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prior distribution for thermodynamic quantities (uniform or normal)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Number of exp. conditions (excluding reference state)</t>
   </si>
   <si>
     <t xml:space="preserve">Number of model structures</t>
   </si>
   <si>
-    <t xml:space="preserve">Number of particles</t>
+    <t xml:space="preserve">Number of models</t>
   </si>
   <si>
     <t xml:space="preserve">Parallel mode (ON = 1; OFF = 0)</t>
@@ -69,19 +84,10 @@
     <t xml:space="preserve">Number of cores (ignored if Parallel mode disabled)</t>
   </si>
   <si>
-    <t xml:space="preserve">Percentile of alive particles for SMC (e.g., 20, 50, etc.) (only needed for rejectionSMC, SMC, MCMC-SMC)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Compute robust fluxes (ON = 1; OFF = 0)</t>
   </si>
   <si>
-    <t xml:space="preserve">Compute thermodynamics (ON = 1; OFF = 0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inicial tolerance (OPTIONAL)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Final tolerance (in the case of ORACLE, set to 1)</t>
+    <t xml:space="preserve">Final tolerance (in the case of GRASP, set to 1)</t>
   </si>
   <si>
     <t xml:space="preserve">rxn ID</t>
@@ -1020,9 +1026,13 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1035,39 +1045,42 @@
     </xf>
   </cellXfs>
   <cellStyles count="7">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="*unknown*" xfId="20" builtinId="8" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="*unknown*" xfId="20" builtinId="8"/>
   </cellStyles>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="33.74"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1075,7 +1088,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1083,7 +1096,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -1091,75 +1104,81 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="0" t="n">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>1</v>
@@ -1177,7 +1196,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -1187,28 +1206,25 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.53"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>215</v>
       </c>
+      <c r="C1" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>69</v>
+      <c r="A2" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0</v>
@@ -1221,8 +1237,8 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>70</v>
+      <c r="A3" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -1235,8 +1251,8 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>71</v>
+      <c r="A4" s="2" t="s">
+        <v>73</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0</v>
@@ -1249,8 +1265,8 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>72</v>
+      <c r="A5" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -1263,8 +1279,8 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>73</v>
+      <c r="A6" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -1277,8 +1293,8 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>74</v>
+      <c r="A7" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0</v>
@@ -1291,8 +1307,8 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>75</v>
+      <c r="A8" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -1305,8 +1321,8 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>76</v>
+      <c r="A9" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0</v>
@@ -1319,8 +1335,8 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>77</v>
+      <c r="A10" s="2" t="s">
+        <v>79</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0</v>
@@ -1333,8 +1349,8 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>78</v>
+      <c r="A11" s="2" t="s">
+        <v>80</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0</v>
@@ -1347,8 +1363,8 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>79</v>
+      <c r="A12" s="2" t="s">
+        <v>81</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -1361,8 +1377,8 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>80</v>
+      <c r="A13" s="2" t="s">
+        <v>82</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0</v>
@@ -1375,8 +1391,8 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>81</v>
+      <c r="A14" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0</v>
@@ -1389,8 +1405,8 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>82</v>
+      <c r="A15" s="2" t="s">
+        <v>84</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0</v>
@@ -1403,8 +1419,8 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
-        <v>83</v>
+      <c r="A16" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0</v>
@@ -1417,8 +1433,8 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
-        <v>84</v>
+      <c r="A17" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0</v>
@@ -1431,8 +1447,8 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
-        <v>85</v>
+      <c r="A18" s="2" t="s">
+        <v>87</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0</v>
@@ -1445,8 +1461,8 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
-        <v>86</v>
+      <c r="A19" s="2" t="s">
+        <v>88</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0</v>
@@ -1459,8 +1475,8 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
-        <v>87</v>
+      <c r="A20" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0</v>
@@ -1473,8 +1489,8 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
-        <v>88</v>
+      <c r="A21" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0</v>
@@ -1487,8 +1503,8 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="s">
-        <v>89</v>
+      <c r="A22" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>0</v>
@@ -1501,8 +1517,8 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="s">
-        <v>90</v>
+      <c r="A23" s="2" t="s">
+        <v>92</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>0</v>
@@ -1515,8 +1531,8 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="s">
-        <v>91</v>
+      <c r="A24" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>0</v>
@@ -1529,8 +1545,8 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="s">
-        <v>92</v>
+      <c r="A25" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>0</v>
@@ -1543,8 +1559,8 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="s">
-        <v>93</v>
+      <c r="A26" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>0</v>
@@ -1557,8 +1573,8 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="s">
-        <v>94</v>
+      <c r="A27" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>0</v>
@@ -1571,8 +1587,8 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="s">
-        <v>95</v>
+      <c r="A28" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>0</v>
@@ -1585,8 +1601,8 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="s">
-        <v>96</v>
+      <c r="A29" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>0</v>
@@ -1599,8 +1615,8 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="s">
-        <v>97</v>
+      <c r="A30" s="2" t="s">
+        <v>99</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>0</v>
@@ -1613,8 +1629,8 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="s">
-        <v>98</v>
+      <c r="A31" s="2" t="s">
+        <v>100</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>0</v>
@@ -1627,8 +1643,8 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="s">
-        <v>99</v>
+      <c r="A32" s="2" t="s">
+        <v>101</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>0</v>
@@ -1641,8 +1657,8 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="s">
-        <v>100</v>
+      <c r="A33" s="2" t="s">
+        <v>102</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>0</v>
@@ -1655,8 +1671,8 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="s">
-        <v>101</v>
+      <c r="A34" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>0</v>
@@ -1669,8 +1685,8 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="s">
-        <v>102</v>
+      <c r="A35" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>0</v>
@@ -1683,8 +1699,8 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="s">
-        <v>103</v>
+      <c r="A36" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>0</v>
@@ -1697,8 +1713,8 @@
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1" t="s">
-        <v>104</v>
+      <c r="A37" s="2" t="s">
+        <v>106</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>0</v>
@@ -1711,8 +1727,8 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="s">
-        <v>105</v>
+      <c r="A38" s="2" t="s">
+        <v>107</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>0</v>
@@ -1725,8 +1741,8 @@
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1" t="s">
-        <v>106</v>
+      <c r="A39" s="2" t="s">
+        <v>108</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>0</v>
@@ -1739,8 +1755,8 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1" t="s">
-        <v>107</v>
+      <c r="A40" s="2" t="s">
+        <v>109</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>0</v>
@@ -1753,8 +1769,8 @@
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1" t="s">
-        <v>108</v>
+      <c r="A41" s="2" t="s">
+        <v>110</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>0</v>
@@ -1767,8 +1783,8 @@
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1" t="s">
-        <v>109</v>
+      <c r="A42" s="2" t="s">
+        <v>111</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>0</v>
@@ -1781,8 +1797,8 @@
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1" t="s">
-        <v>110</v>
+      <c r="A43" s="2" t="s">
+        <v>112</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>0.99</v>
@@ -1795,8 +1811,8 @@
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="1" t="s">
-        <v>111</v>
+      <c r="A44" s="2" t="s">
+        <v>113</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>0.99</v>
@@ -1809,8 +1825,8 @@
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="1" t="s">
-        <v>112</v>
+      <c r="A45" s="2" t="s">
+        <v>114</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>0.99</v>
@@ -1823,8 +1839,8 @@
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="1" t="s">
-        <v>113</v>
+      <c r="A46" s="2" t="s">
+        <v>115</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>0.99</v>
@@ -1837,8 +1853,8 @@
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="1" t="s">
-        <v>114</v>
+      <c r="A47" s="2" t="s">
+        <v>116</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>0.99</v>
@@ -1851,8 +1867,8 @@
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="1" t="s">
-        <v>115</v>
+      <c r="A48" s="2" t="s">
+        <v>117</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>0.99</v>
@@ -1865,8 +1881,8 @@
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="1" t="s">
-        <v>116</v>
+      <c r="A49" s="2" t="s">
+        <v>118</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>0.99</v>
@@ -1879,8 +1895,8 @@
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="1" t="s">
-        <v>117</v>
+      <c r="A50" s="2" t="s">
+        <v>119</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>0.99</v>
@@ -1904,7 +1920,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -1914,28 +1930,25 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.53"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>215</v>
       </c>
+      <c r="C1" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>18</v>
+      <c r="A2" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0</v>
@@ -1948,8 +1961,8 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>19</v>
+      <c r="A3" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -1962,8 +1975,8 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>20</v>
+      <c r="A4" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.805792525521532</v>
@@ -1976,8 +1989,8 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>21</v>
+      <c r="A5" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -1990,8 +2003,8 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>22</v>
+      <c r="A6" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0.928124943041768</v>
@@ -2004,8 +2017,8 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>23</v>
+      <c r="A7" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0</v>
@@ -2018,8 +2031,8 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>24</v>
+      <c r="A8" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.980758075213057</v>
@@ -2032,8 +2045,8 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>25</v>
+      <c r="A9" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0</v>
@@ -2046,8 +2059,8 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>26</v>
+      <c r="A10" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0</v>
@@ -2060,8 +2073,8 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>27</v>
+      <c r="A11" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.850553653712464</v>
@@ -2074,8 +2087,8 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>28</v>
+      <c r="A12" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -2088,8 +2101,8 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>29</v>
+      <c r="A13" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0</v>
@@ -2102,8 +2115,8 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>30</v>
+      <c r="A14" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0</v>
@@ -2116,8 +2129,8 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>31</v>
+      <c r="A15" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0.998343913039016</v>
@@ -2130,8 +2143,8 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
-        <v>32</v>
+      <c r="A16" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0.925834010503215</v>
@@ -2144,8 +2157,8 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
-        <v>33</v>
+      <c r="A17" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0.914831185724609</v>
@@ -2158,8 +2171,8 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
-        <v>34</v>
+      <c r="A18" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0.889197992439507</v>
@@ -2172,8 +2185,8 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
-        <v>35</v>
+      <c r="A19" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0</v>
@@ -2186,8 +2199,8 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
-        <v>36</v>
+      <c r="A20" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0</v>
@@ -2200,8 +2213,8 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
-        <v>37</v>
+      <c r="A21" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0</v>
@@ -2214,8 +2227,8 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="s">
-        <v>38</v>
+      <c r="A22" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>0</v>
@@ -2228,8 +2241,8 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="s">
-        <v>39</v>
+      <c r="A23" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>0.912928600623706</v>
@@ -2242,8 +2255,8 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="s">
-        <v>40</v>
+      <c r="A24" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>0.885298914584682</v>
@@ -2256,8 +2269,8 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="s">
-        <v>41</v>
+      <c r="A25" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>0</v>
@@ -2270,8 +2283,8 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="s">
-        <v>42</v>
+      <c r="A26" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>0</v>
@@ -2284,8 +2297,8 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="s">
-        <v>43</v>
+      <c r="A27" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>0.923333362502783</v>
@@ -2298,8 +2311,8 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="s">
-        <v>44</v>
+      <c r="A28" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>0</v>
@@ -2312,8 +2325,8 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="s">
-        <v>45</v>
+      <c r="A29" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>0.955157747123127</v>
@@ -2326,8 +2339,8 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="s">
-        <v>46</v>
+      <c r="A30" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>0</v>
@@ -2340,8 +2353,8 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="s">
-        <v>47</v>
+      <c r="A31" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>0.824707049979672</v>
@@ -2354,8 +2367,8 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="s">
-        <v>48</v>
+      <c r="A32" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>0.952987338158675</v>
@@ -2368,8 +2381,8 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="s">
-        <v>49</v>
+      <c r="A33" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>0.873263888888888</v>
@@ -2382,8 +2395,8 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="s">
-        <v>50</v>
+      <c r="A34" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>0</v>
@@ -2396,8 +2409,8 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="s">
-        <v>51</v>
+      <c r="A35" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>0</v>
@@ -2410,8 +2423,8 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="s">
-        <v>52</v>
+      <c r="A36" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>0</v>
@@ -2424,8 +2437,8 @@
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1" t="s">
-        <v>53</v>
+      <c r="A37" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>0.944333167529983</v>
@@ -2438,8 +2451,8 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="s">
-        <v>54</v>
+      <c r="A38" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>0</v>
@@ -2452,8 +2465,8 @@
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1" t="s">
-        <v>55</v>
+      <c r="A39" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>0.890748496539046</v>
@@ -2466,8 +2479,8 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1" t="s">
-        <v>56</v>
+      <c r="A40" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>0.738916363773338</v>
@@ -2480,8 +2493,8 @@
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1" t="s">
-        <v>57</v>
+      <c r="A41" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>0</v>
@@ -2494,8 +2507,8 @@
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1" t="s">
-        <v>58</v>
+      <c r="A42" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>0</v>
@@ -2508,8 +2521,8 @@
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1" t="s">
-        <v>59</v>
+      <c r="A43" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>0</v>
@@ -2522,8 +2535,8 @@
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="1" t="s">
-        <v>60</v>
+      <c r="A44" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>0</v>
@@ -2536,8 +2549,8 @@
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="1" t="s">
-        <v>61</v>
+      <c r="A45" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>0.99</v>
@@ -2550,8 +2563,8 @@
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="1" t="s">
-        <v>62</v>
+      <c r="A46" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>0.99</v>
@@ -2564,8 +2577,8 @@
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="1" t="s">
-        <v>63</v>
+      <c r="A47" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>0.99</v>
@@ -2578,8 +2591,8 @@
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="1" t="s">
-        <v>64</v>
+      <c r="A48" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>0.99</v>
@@ -2592,8 +2605,8 @@
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="1" t="s">
-        <v>65</v>
+      <c r="A49" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>0.99</v>
@@ -2606,8 +2619,8 @@
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="1" t="s">
-        <v>66</v>
+      <c r="A50" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>0.99</v>
@@ -2620,8 +2633,8 @@
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="1" t="s">
-        <v>67</v>
+      <c r="A51" s="2" t="s">
+        <v>69</v>
       </c>
       <c r="B51" s="0" t="n">
         <v>0.99</v>
@@ -2634,8 +2647,8 @@
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="1" t="s">
-        <v>68</v>
+      <c r="A52" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="B52" s="0" t="n">
         <v>0.99</v>
@@ -2659,152 +2672,149 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:X50"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="AX1" activeCellId="0" sqref="AX1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.53"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
+      <c r="J1" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>69</v>
+      <c r="A2" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="K2" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>70</v>
+      <c r="A3" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="K3" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>71</v>
+      <c r="A4" s="2" t="s">
+        <v>73</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="K4" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>72</v>
+      <c r="A5" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K5" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>73</v>
+      <c r="A6" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J6" s="0" t="n">
         <v>1</v>
@@ -2814,131 +2824,131 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>74</v>
+      <c r="A7" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K7" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>75</v>
+      <c r="A8" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="K8" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>76</v>
+      <c r="A9" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="K9" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>77</v>
+      <c r="A10" s="2" t="s">
+        <v>79</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D10" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="E10" s="0" t="s">
         <v>247</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>245</v>
       </c>
       <c r="K10" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>78</v>
+      <c r="A11" s="2" t="s">
+        <v>80</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="K11" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>79</v>
+      <c r="A12" s="2" t="s">
+        <v>81</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="K12" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>80</v>
+      <c r="A13" s="2" t="s">
+        <v>82</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J13" s="0" t="n">
         <v>1</v>
@@ -2948,29 +2958,29 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>81</v>
+      <c r="A14" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J14" s="0" t="n">
         <v>1</v>
@@ -2980,29 +2990,29 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>82</v>
+      <c r="A15" s="2" t="s">
+        <v>84</v>
       </c>
       <c r="B15" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="D15" s="0" t="s">
         <v>256</v>
       </c>
-      <c r="C15" s="0" t="s">
-        <v>253</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>254</v>
-      </c>
       <c r="E15" s="0" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J15" s="0" t="n">
         <v>1</v>
@@ -3012,8 +3022,8 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
-        <v>83</v>
+      <c r="A16" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0</v>
@@ -3047,261 +3057,261 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
-        <v>84</v>
+      <c r="A17" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K17" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
-        <v>85</v>
+      <c r="A18" s="2" t="s">
+        <v>87</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D18" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="E18" s="0" t="s">
         <v>266</v>
       </c>
-      <c r="E18" s="0" t="s">
-        <v>264</v>
-      </c>
       <c r="F18" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K18" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
-        <v>86</v>
+      <c r="A19" s="2" t="s">
+        <v>88</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K19" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="W19" s="2"/>
+      <c r="W19" s="3"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
-        <v>87</v>
+      <c r="A20" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="K20" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
-        <v>88</v>
+      <c r="A21" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="K21" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="W21" s="2"/>
+      <c r="W21" s="3"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="s">
-        <v>89</v>
+      <c r="A22" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="K22" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="W22" s="2"/>
+      <c r="W22" s="3"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="s">
-        <v>90</v>
+      <c r="A23" s="2" t="s">
+        <v>92</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="K23" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="s">
-        <v>91</v>
+      <c r="A24" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K24" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="s">
-        <v>92</v>
+      <c r="A25" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="K25" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="s">
-        <v>93</v>
+      <c r="A26" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K26" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="W26" s="2"/>
+      <c r="W26" s="3"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="s">
-        <v>94</v>
+      <c r="A27" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="K27" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="W27" s="2"/>
+      <c r="W27" s="3"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="s">
-        <v>95</v>
+      <c r="A28" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K28" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="s">
-        <v>96</v>
+      <c r="A29" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K29" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="s">
-        <v>97</v>
+      <c r="A30" s="2" t="s">
+        <v>99</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J30" s="0" t="n">
         <v>1</v>
@@ -3311,71 +3321,71 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="s">
-        <v>98</v>
+      <c r="A31" s="2" t="s">
+        <v>100</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="K31" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="s">
-        <v>99</v>
+      <c r="A32" s="2" t="s">
+        <v>101</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K32" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="s">
-        <v>100</v>
+      <c r="A33" s="2" t="s">
+        <v>102</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K33" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="s">
-        <v>101</v>
+      <c r="A34" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="I34" s="0" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="J34" s="0" t="n">
         <v>1</v>
@@ -3385,126 +3395,126 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="s">
-        <v>102</v>
+      <c r="A35" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K35" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="s">
-        <v>103</v>
+      <c r="A36" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="K36" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1" t="s">
-        <v>104</v>
+      <c r="A37" s="2" t="s">
+        <v>106</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="K37" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="s">
-        <v>105</v>
+      <c r="A38" s="2" t="s">
+        <v>107</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="K38" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1" t="s">
-        <v>106</v>
+      <c r="A39" s="2" t="s">
+        <v>108</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="K39" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1" t="s">
-        <v>107</v>
+      <c r="A40" s="2" t="s">
+        <v>109</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K40" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1" t="s">
-        <v>108</v>
+      <c r="A41" s="2" t="s">
+        <v>110</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K41" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1" t="s">
-        <v>109</v>
+      <c r="A42" s="2" t="s">
+        <v>111</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K42" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1" t="s">
-        <v>110</v>
+      <c r="A43" s="2" t="s">
+        <v>112</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>0</v>
@@ -3538,8 +3548,8 @@
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="1" t="s">
-        <v>111</v>
+      <c r="A44" s="2" t="s">
+        <v>113</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>0</v>
@@ -3573,8 +3583,8 @@
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="1" t="s">
-        <v>112</v>
+      <c r="A45" s="2" t="s">
+        <v>114</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>0</v>
@@ -3608,8 +3618,8 @@
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="1" t="s">
-        <v>113</v>
+      <c r="A46" s="2" t="s">
+        <v>115</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>0</v>
@@ -3643,8 +3653,8 @@
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="1" t="s">
-        <v>114</v>
+      <c r="A47" s="2" t="s">
+        <v>116</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>0</v>
@@ -3678,8 +3688,8 @@
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="1" t="s">
-        <v>115</v>
+      <c r="A48" s="2" t="s">
+        <v>117</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>0</v>
@@ -3713,8 +3723,8 @@
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="1" t="s">
-        <v>116</v>
+      <c r="A49" s="2" t="s">
+        <v>118</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>0</v>
@@ -3748,8 +3758,8 @@
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="1" t="s">
-        <v>117</v>
+      <c r="A50" s="2" t="s">
+        <v>119</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>0</v>
@@ -3794,7 +3804,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -3804,172 +3814,169 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.53"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="P1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="R1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="S1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="T1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="U1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="V1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="W1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="X1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="Y1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="Z1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AA1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AB1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AC1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AD1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AE1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AF1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AG1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AH1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AI1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AK1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AL1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AM1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AN1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AO1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AP1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AQ1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AR1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AS1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AT1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AU1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AV1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="AW1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="AX1" s="2" t="s">
         <v>68</v>
       </c>
+      <c r="AY1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="AZ1" s="2" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>69</v>
+      <c r="A2" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>-1</v>
@@ -4126,8 +4133,8 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>70</v>
+      <c r="A3" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -4284,8 +4291,8 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>71</v>
+      <c r="A4" s="2" t="s">
+        <v>73</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0</v>
@@ -4442,8 +4449,8 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>72</v>
+      <c r="A5" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -4600,8 +4607,8 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>73</v>
+      <c r="A6" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -4758,8 +4765,8 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>74</v>
+      <c r="A7" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0</v>
@@ -4916,8 +4923,8 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>75</v>
+      <c r="A8" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -5074,8 +5081,8 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>76</v>
+      <c r="A9" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0</v>
@@ -5232,8 +5239,8 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>77</v>
+      <c r="A10" s="2" t="s">
+        <v>79</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0</v>
@@ -5390,8 +5397,8 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>78</v>
+      <c r="A11" s="2" t="s">
+        <v>80</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0</v>
@@ -5548,8 +5555,8 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>79</v>
+      <c r="A12" s="2" t="s">
+        <v>81</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -5706,8 +5713,8 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>80</v>
+      <c r="A13" s="2" t="s">
+        <v>82</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0</v>
@@ -5864,8 +5871,8 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>81</v>
+      <c r="A14" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0</v>
@@ -6022,8 +6029,8 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>82</v>
+      <c r="A15" s="2" t="s">
+        <v>84</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0</v>
@@ -6180,8 +6187,8 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
-        <v>83</v>
+      <c r="A16" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0</v>
@@ -6338,8 +6345,8 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
-        <v>84</v>
+      <c r="A17" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0</v>
@@ -6496,8 +6503,8 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
-        <v>85</v>
+      <c r="A18" s="2" t="s">
+        <v>87</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0</v>
@@ -6654,8 +6661,8 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
-        <v>86</v>
+      <c r="A19" s="2" t="s">
+        <v>88</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0</v>
@@ -6812,8 +6819,8 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
-        <v>87</v>
+      <c r="A20" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0</v>
@@ -6970,8 +6977,8 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
-        <v>88</v>
+      <c r="A21" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0</v>
@@ -7128,8 +7135,8 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="s">
-        <v>89</v>
+      <c r="A22" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>0</v>
@@ -7286,8 +7293,8 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="s">
-        <v>90</v>
+      <c r="A23" s="2" t="s">
+        <v>92</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>0</v>
@@ -7444,8 +7451,8 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="s">
-        <v>91</v>
+      <c r="A24" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>0</v>
@@ -7602,8 +7609,8 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="s">
-        <v>92</v>
+      <c r="A25" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>0</v>
@@ -7760,8 +7767,8 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="s">
-        <v>93</v>
+      <c r="A26" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>0</v>
@@ -7918,8 +7925,8 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="s">
-        <v>94</v>
+      <c r="A27" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>0</v>
@@ -8076,8 +8083,8 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="s">
-        <v>95</v>
+      <c r="A28" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>0</v>
@@ -8234,8 +8241,8 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="s">
-        <v>96</v>
+      <c r="A29" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>0</v>
@@ -8392,8 +8399,8 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="s">
-        <v>97</v>
+      <c r="A30" s="2" t="s">
+        <v>99</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>0</v>
@@ -8550,8 +8557,8 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="s">
-        <v>98</v>
+      <c r="A31" s="2" t="s">
+        <v>100</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>0</v>
@@ -8708,8 +8715,8 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="s">
-        <v>99</v>
+      <c r="A32" s="2" t="s">
+        <v>101</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>0</v>
@@ -8866,8 +8873,8 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="s">
-        <v>100</v>
+      <c r="A33" s="2" t="s">
+        <v>102</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>0</v>
@@ -9024,8 +9031,8 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="s">
-        <v>101</v>
+      <c r="A34" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>0</v>
@@ -9182,8 +9189,8 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="s">
-        <v>102</v>
+      <c r="A35" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>0</v>
@@ -9340,8 +9347,8 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="s">
-        <v>103</v>
+      <c r="A36" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>0</v>
@@ -9498,8 +9505,8 @@
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1" t="s">
-        <v>104</v>
+      <c r="A37" s="2" t="s">
+        <v>106</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>0</v>
@@ -9656,8 +9663,8 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="s">
-        <v>105</v>
+      <c r="A38" s="2" t="s">
+        <v>107</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>0</v>
@@ -9814,8 +9821,8 @@
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1" t="s">
-        <v>106</v>
+      <c r="A39" s="2" t="s">
+        <v>108</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>0</v>
@@ -9972,8 +9979,8 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1" t="s">
-        <v>107</v>
+      <c r="A40" s="2" t="s">
+        <v>109</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>0</v>
@@ -10130,8 +10137,8 @@
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1" t="s">
-        <v>108</v>
+      <c r="A41" s="2" t="s">
+        <v>110</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>0</v>
@@ -10288,8 +10295,8 @@
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1" t="s">
-        <v>109</v>
+      <c r="A42" s="2" t="s">
+        <v>111</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>0</v>
@@ -10446,8 +10453,8 @@
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1" t="s">
-        <v>110</v>
+      <c r="A43" s="2" t="s">
+        <v>112</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>0</v>
@@ -10604,8 +10611,8 @@
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="1" t="s">
-        <v>111</v>
+      <c r="A44" s="2" t="s">
+        <v>113</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>0</v>
@@ -10762,8 +10769,8 @@
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="1" t="s">
-        <v>112</v>
+      <c r="A45" s="2" t="s">
+        <v>114</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>0</v>
@@ -10920,8 +10927,8 @@
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="1" t="s">
-        <v>113</v>
+      <c r="A46" s="2" t="s">
+        <v>115</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>0</v>
@@ -11078,8 +11085,8 @@
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="1" t="s">
-        <v>114</v>
+      <c r="A47" s="2" t="s">
+        <v>116</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>0</v>
@@ -11236,8 +11243,8 @@
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="1" t="s">
-        <v>115</v>
+      <c r="A48" s="2" t="s">
+        <v>117</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>0</v>
@@ -11394,8 +11401,8 @@
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="1" t="s">
-        <v>116</v>
+      <c r="A49" s="2" t="s">
+        <v>118</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>0</v>
@@ -11552,8 +11559,8 @@
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="1" t="s">
-        <v>117</v>
+      <c r="A50" s="2" t="s">
+        <v>119</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>0</v>
@@ -11721,7 +11728,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -11731,25 +11738,22 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.53"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>120</v>
       </c>
+      <c r="B1" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>18</v>
+      <c r="A2" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0</v>
@@ -11759,8 +11763,8 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>19</v>
+      <c r="A3" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -11770,8 +11774,8 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>20</v>
+      <c r="A4" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0</v>
@@ -11781,8 +11785,8 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>21</v>
+      <c r="A5" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -11792,8 +11796,8 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>22</v>
+      <c r="A6" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -11803,8 +11807,8 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>23</v>
+      <c r="A7" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0</v>
@@ -11814,8 +11818,8 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>24</v>
+      <c r="A8" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -11825,8 +11829,8 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>25</v>
+      <c r="A9" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0</v>
@@ -11836,8 +11840,8 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>26</v>
+      <c r="A10" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0</v>
@@ -11847,8 +11851,8 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>27</v>
+      <c r="A11" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0</v>
@@ -11858,8 +11862,8 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>28</v>
+      <c r="A12" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -11869,8 +11873,8 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>29</v>
+      <c r="A13" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0</v>
@@ -11880,8 +11884,8 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>30</v>
+      <c r="A14" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0</v>
@@ -11891,8 +11895,8 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>31</v>
+      <c r="A15" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0</v>
@@ -11902,8 +11906,8 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
-        <v>32</v>
+      <c r="A16" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0</v>
@@ -11913,8 +11917,8 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
-        <v>33</v>
+      <c r="A17" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0</v>
@@ -11924,8 +11928,8 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
-        <v>34</v>
+      <c r="A18" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0</v>
@@ -11935,8 +11939,8 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
-        <v>35</v>
+      <c r="A19" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0</v>
@@ -11946,8 +11950,8 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
-        <v>36</v>
+      <c r="A20" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0</v>
@@ -11957,8 +11961,8 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
-        <v>37</v>
+      <c r="A21" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0</v>
@@ -11968,8 +11972,8 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="s">
-        <v>38</v>
+      <c r="A22" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>0</v>
@@ -11979,8 +11983,8 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="s">
-        <v>39</v>
+      <c r="A23" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>0</v>
@@ -11990,8 +11994,8 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="s">
-        <v>40</v>
+      <c r="A24" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>0</v>
@@ -12001,8 +12005,8 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="s">
-        <v>41</v>
+      <c r="A25" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>0</v>
@@ -12012,8 +12016,8 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="s">
-        <v>42</v>
+      <c r="A26" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>0</v>
@@ -12023,8 +12027,8 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="s">
-        <v>43</v>
+      <c r="A27" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>0</v>
@@ -12034,8 +12038,8 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="s">
-        <v>44</v>
+      <c r="A28" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>0</v>
@@ -12045,8 +12049,8 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="s">
-        <v>45</v>
+      <c r="A29" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>0</v>
@@ -12056,8 +12060,8 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="s">
-        <v>46</v>
+      <c r="A30" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>0</v>
@@ -12067,8 +12071,8 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="s">
-        <v>47</v>
+      <c r="A31" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>0</v>
@@ -12078,8 +12082,8 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="s">
-        <v>48</v>
+      <c r="A32" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>0</v>
@@ -12089,8 +12093,8 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="s">
-        <v>49</v>
+      <c r="A33" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>0</v>
@@ -12100,8 +12104,8 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="s">
-        <v>50</v>
+      <c r="A34" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>0</v>
@@ -12111,8 +12115,8 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="s">
-        <v>51</v>
+      <c r="A35" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>0</v>
@@ -12122,8 +12126,8 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="s">
-        <v>52</v>
+      <c r="A36" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>0</v>
@@ -12133,8 +12137,8 @@
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1" t="s">
-        <v>53</v>
+      <c r="A37" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>0</v>
@@ -12144,8 +12148,8 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="s">
-        <v>54</v>
+      <c r="A38" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>0</v>
@@ -12155,8 +12159,8 @@
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1" t="s">
-        <v>55</v>
+      <c r="A39" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>0</v>
@@ -12166,8 +12170,8 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1" t="s">
-        <v>56</v>
+      <c r="A40" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>0</v>
@@ -12177,8 +12181,8 @@
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1" t="s">
-        <v>57</v>
+      <c r="A41" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>0</v>
@@ -12188,8 +12192,8 @@
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1" t="s">
-        <v>58</v>
+      <c r="A42" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>0</v>
@@ -12199,8 +12203,8 @@
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1" t="s">
-        <v>59</v>
+      <c r="A43" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>0</v>
@@ -12210,8 +12214,8 @@
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="1" t="s">
-        <v>60</v>
+      <c r="A44" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>0</v>
@@ -12221,8 +12225,8 @@
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="1" t="s">
-        <v>61</v>
+      <c r="A45" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>1E-012</v>
@@ -12232,8 +12236,8 @@
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="1" t="s">
-        <v>62</v>
+      <c r="A46" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>1E-012</v>
@@ -12243,8 +12247,8 @@
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="1" t="s">
-        <v>63</v>
+      <c r="A47" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>1E-012</v>
@@ -12254,8 +12258,8 @@
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="1" t="s">
-        <v>64</v>
+      <c r="A48" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>1E-012</v>
@@ -12265,8 +12269,8 @@
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="1" t="s">
-        <v>65</v>
+      <c r="A49" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>1E-012</v>
@@ -12276,8 +12280,8 @@
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="1" t="s">
-        <v>66</v>
+      <c r="A50" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>1E-012</v>
@@ -12287,8 +12291,8 @@
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="1" t="s">
-        <v>67</v>
+      <c r="A51" s="2" t="s">
+        <v>69</v>
       </c>
       <c r="B51" s="0" t="n">
         <v>1E-012</v>
@@ -12298,8 +12302,8 @@
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="1" t="s">
-        <v>68</v>
+      <c r="A52" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="B52" s="0" t="n">
         <v>1E-012</v>
@@ -12320,7 +12324,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -12330,499 +12334,498 @@
       <selection pane="topLeft" activeCell="F16" activeCellId="0" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1021" min="1" style="0" width="8.53"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1022" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1022" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>122</v>
+      <c r="A1" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>18</v>
+      <c r="A2" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>19</v>
+      <c r="A3" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>20</v>
+      <c r="A4" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>21</v>
+      <c r="A5" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>22</v>
+      <c r="A6" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>23</v>
+      <c r="A7" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>24</v>
+      <c r="A8" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>25</v>
+      <c r="A9" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>26</v>
+      <c r="A10" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>27</v>
+      <c r="A11" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>28</v>
+      <c r="A12" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>29</v>
+      <c r="A13" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>30</v>
+      <c r="A14" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>31</v>
+      <c r="A15" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
-        <v>32</v>
+      <c r="A16" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
-        <v>33</v>
+      <c r="A17" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
-        <v>34</v>
+      <c r="A18" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
-        <v>35</v>
+      <c r="A19" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
-        <v>36</v>
+      <c r="A20" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
-        <v>37</v>
+      <c r="A21" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="s">
-        <v>38</v>
+      <c r="A22" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="s">
-        <v>39</v>
+      <c r="A23" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="s">
-        <v>40</v>
+      <c r="A24" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="s">
-        <v>41</v>
+      <c r="A25" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="s">
-        <v>42</v>
+      <c r="A26" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="s">
-        <v>43</v>
+      <c r="A27" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="s">
-        <v>44</v>
+      <c r="A28" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="s">
-        <v>45</v>
+      <c r="A29" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="s">
-        <v>46</v>
+      <c r="A30" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="s">
-        <v>47</v>
+      <c r="A31" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="s">
-        <v>48</v>
+      <c r="A32" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C32" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="s">
-        <v>49</v>
+      <c r="A33" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C33" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="s">
-        <v>50</v>
+      <c r="A34" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C34" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="s">
-        <v>51</v>
+      <c r="A35" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C35" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="s">
-        <v>52</v>
+      <c r="A36" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C36" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1" t="s">
-        <v>53</v>
+      <c r="A37" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C37" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="s">
-        <v>54</v>
+      <c r="A38" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C38" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1" t="s">
-        <v>55</v>
+      <c r="A39" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C39" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1" t="s">
-        <v>56</v>
+      <c r="A40" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C40" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1" t="s">
-        <v>57</v>
+      <c r="A41" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C41" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1" t="s">
-        <v>58</v>
+      <c r="A42" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C42" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1" t="s">
-        <v>59</v>
+      <c r="A43" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C43" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="1" t="s">
-        <v>60</v>
+      <c r="A44" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C44" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="1" t="s">
-        <v>61</v>
+      <c r="A45" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>0</v>
@@ -12832,8 +12835,8 @@
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="1" t="s">
-        <v>62</v>
+      <c r="A46" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>0</v>
@@ -12843,8 +12846,8 @@
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="1" t="s">
-        <v>63</v>
+      <c r="A47" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>0</v>
@@ -12854,8 +12857,8 @@
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="1" t="s">
-        <v>64</v>
+      <c r="A48" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>0</v>
@@ -12865,8 +12868,8 @@
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="1" t="s">
-        <v>65</v>
+      <c r="A49" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>0</v>
@@ -12876,8 +12879,8 @@
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="1" t="s">
-        <v>66</v>
+      <c r="A50" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>0</v>
@@ -12887,8 +12890,8 @@
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="1" t="s">
-        <v>67</v>
+      <c r="A51" s="2" t="s">
+        <v>69</v>
       </c>
       <c r="B51" s="0" t="n">
         <v>0</v>
@@ -12898,8 +12901,8 @@
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="1" t="s">
-        <v>68</v>
+      <c r="A52" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="B52" s="0" t="n">
         <v>0</v>
@@ -12920,7 +12923,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -12930,489 +12933,488 @@
       <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="1" style="0" width="8.53"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>169</v>
       </c>
+      <c r="C1" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>69</v>
+      <c r="A2" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>70</v>
+      <c r="A3" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>71</v>
+      <c r="A4" s="2" t="s">
+        <v>73</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>72</v>
+      <c r="A5" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>73</v>
+      <c r="A6" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>74</v>
+      <c r="A7" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>75</v>
+      <c r="A8" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>76</v>
+      <c r="A9" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>77</v>
+      <c r="A10" s="2" t="s">
+        <v>79</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>78</v>
+      <c r="A11" s="2" t="s">
+        <v>80</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>79</v>
+      <c r="A12" s="2" t="s">
+        <v>81</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>80</v>
+      <c r="A13" s="2" t="s">
+        <v>82</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>81</v>
+      <c r="A14" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>82</v>
+      <c r="A15" s="2" t="s">
+        <v>84</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
-        <v>83</v>
+      <c r="A16" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
-        <v>84</v>
+      <c r="A17" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
-        <v>85</v>
+      <c r="A18" s="2" t="s">
+        <v>87</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
-        <v>86</v>
+      <c r="A19" s="2" t="s">
+        <v>88</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
-        <v>87</v>
+      <c r="A20" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
-        <v>88</v>
+      <c r="A21" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="s">
-        <v>89</v>
+      <c r="A22" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="s">
-        <v>90</v>
+      <c r="A23" s="2" t="s">
+        <v>92</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="s">
-        <v>91</v>
+      <c r="A24" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="s">
-        <v>92</v>
+      <c r="A25" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="s">
-        <v>93</v>
+      <c r="A26" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="s">
-        <v>94</v>
+      <c r="A27" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="s">
-        <v>95</v>
+      <c r="A28" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="s">
-        <v>96</v>
+      <c r="A29" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="s">
-        <v>97</v>
+      <c r="A30" s="2" t="s">
+        <v>99</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="s">
-        <v>98</v>
+      <c r="A31" s="2" t="s">
+        <v>100</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="s">
-        <v>99</v>
+      <c r="A32" s="2" t="s">
+        <v>101</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C32" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="s">
-        <v>100</v>
+      <c r="A33" s="2" t="s">
+        <v>102</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C33" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="s">
-        <v>101</v>
+      <c r="A34" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C34" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="s">
-        <v>102</v>
+      <c r="A35" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C35" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="s">
-        <v>103</v>
+      <c r="A36" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C36" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1" t="s">
-        <v>104</v>
+      <c r="A37" s="2" t="s">
+        <v>106</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C37" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="s">
-        <v>105</v>
+      <c r="A38" s="2" t="s">
+        <v>107</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C38" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1" t="s">
-        <v>106</v>
+      <c r="A39" s="2" t="s">
+        <v>108</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C39" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1" t="s">
-        <v>107</v>
+      <c r="A40" s="2" t="s">
+        <v>109</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C40" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1" t="s">
-        <v>108</v>
+      <c r="A41" s="2" t="s">
+        <v>110</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C41" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1" t="s">
-        <v>109</v>
+      <c r="A42" s="2" t="s">
+        <v>111</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C42" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1" t="s">
-        <v>110</v>
+      <c r="A43" s="2" t="s">
+        <v>112</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>0</v>
@@ -13425,8 +13427,8 @@
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="1" t="s">
-        <v>111</v>
+      <c r="A44" s="2" t="s">
+        <v>113</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>0</v>
@@ -13439,8 +13441,8 @@
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="1" t="s">
-        <v>112</v>
+      <c r="A45" s="2" t="s">
+        <v>114</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>0</v>
@@ -13453,8 +13455,8 @@
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="1" t="s">
-        <v>113</v>
+      <c r="A46" s="2" t="s">
+        <v>115</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>0</v>
@@ -13467,8 +13469,8 @@
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="1" t="s">
-        <v>114</v>
+      <c r="A47" s="2" t="s">
+        <v>116</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>0</v>
@@ -13481,8 +13483,8 @@
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="1" t="s">
-        <v>115</v>
+      <c r="A48" s="2" t="s">
+        <v>117</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>0</v>
@@ -13495,8 +13497,8 @@
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="1" t="s">
-        <v>116</v>
+      <c r="A49" s="2" t="s">
+        <v>118</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>0</v>
@@ -13509,8 +13511,8 @@
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="1" t="s">
-        <v>117</v>
+      <c r="A50" s="2" t="s">
+        <v>119</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>0</v>
@@ -13534,7 +13536,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -13544,269 +13546,266 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.53"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>118</v>
+      <c r="A2" s="2" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>18</v>
+      <c r="A3" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>19</v>
+      <c r="A4" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>20</v>
+      <c r="A5" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>21</v>
+      <c r="A6" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>22</v>
+      <c r="A7" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>23</v>
+      <c r="A8" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>24</v>
+      <c r="A9" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>25</v>
+      <c r="A10" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>26</v>
+      <c r="A11" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>27</v>
+      <c r="A12" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>28</v>
+      <c r="A13" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>29</v>
+      <c r="A14" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>30</v>
+      <c r="A15" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
-        <v>31</v>
+      <c r="A16" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
-        <v>32</v>
+      <c r="A17" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
-        <v>33</v>
+      <c r="A18" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
-        <v>34</v>
+      <c r="A19" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
-        <v>35</v>
+      <c r="A20" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
-        <v>36</v>
+      <c r="A21" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="s">
-        <v>37</v>
+      <c r="A22" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="s">
-        <v>38</v>
+      <c r="A23" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="s">
-        <v>39</v>
+      <c r="A24" s="2" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="s">
-        <v>40</v>
+      <c r="A25" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="s">
-        <v>41</v>
+      <c r="A26" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="s">
-        <v>42</v>
+      <c r="A27" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="s">
-        <v>43</v>
+      <c r="A28" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="s">
-        <v>44</v>
+      <c r="A29" s="2" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="s">
-        <v>45</v>
+      <c r="A30" s="2" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="s">
-        <v>46</v>
+      <c r="A31" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="s">
-        <v>47</v>
+      <c r="A32" s="2" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="s">
-        <v>48</v>
+      <c r="A33" s="2" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="s">
-        <v>49</v>
+      <c r="A34" s="2" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="s">
-        <v>50</v>
+      <c r="A35" s="2" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="s">
-        <v>51</v>
+      <c r="A36" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1" t="s">
-        <v>52</v>
+      <c r="A37" s="2" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="s">
-        <v>53</v>
+      <c r="A38" s="2" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1" t="s">
-        <v>54</v>
+      <c r="A39" s="2" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1" t="s">
-        <v>55</v>
+      <c r="A40" s="2" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1" t="s">
-        <v>56</v>
+      <c r="A41" s="2" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1" t="s">
-        <v>57</v>
+      <c r="A42" s="2" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1" t="s">
-        <v>58</v>
+      <c r="A43" s="2" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="1" t="s">
-        <v>59</v>
+      <c r="A44" s="2" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="1" t="s">
-        <v>60</v>
+      <c r="A45" s="2" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="1" t="s">
-        <v>61</v>
+      <c r="A46" s="2" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="1" t="s">
-        <v>62</v>
+      <c r="A47" s="2" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="1" t="s">
-        <v>63</v>
+      <c r="A48" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="1" t="s">
-        <v>64</v>
+      <c r="A49" s="2" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="1" t="s">
-        <v>65</v>
+      <c r="A50" s="2" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="1" t="s">
-        <v>66</v>
+      <c r="A51" s="2" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="1" t="s">
-        <v>67</v>
+      <c r="A52" s="2" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="1" t="s">
-        <v>68</v>
+      <c r="A53" s="2" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -13821,7 +13820,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -13831,269 +13830,266 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.53"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>118</v>
+      <c r="A2" s="2" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>18</v>
+      <c r="A3" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>19</v>
+      <c r="A4" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>20</v>
+      <c r="A5" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>21</v>
+      <c r="A6" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>22</v>
+      <c r="A7" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>23</v>
+      <c r="A8" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>24</v>
+      <c r="A9" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>25</v>
+      <c r="A10" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>26</v>
+      <c r="A11" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>27</v>
+      <c r="A12" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>28</v>
+      <c r="A13" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>29</v>
+      <c r="A14" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>30</v>
+      <c r="A15" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
-        <v>31</v>
+      <c r="A16" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
-        <v>32</v>
+      <c r="A17" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
-        <v>33</v>
+      <c r="A18" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
-        <v>34</v>
+      <c r="A19" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
-        <v>35</v>
+      <c r="A20" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
-        <v>36</v>
+      <c r="A21" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="s">
-        <v>37</v>
+      <c r="A22" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="s">
-        <v>38</v>
+      <c r="A23" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="s">
-        <v>39</v>
+      <c r="A24" s="2" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="s">
-        <v>40</v>
+      <c r="A25" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="s">
-        <v>41</v>
+      <c r="A26" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="s">
-        <v>42</v>
+      <c r="A27" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="s">
-        <v>43</v>
+      <c r="A28" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="s">
-        <v>44</v>
+      <c r="A29" s="2" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="s">
-        <v>45</v>
+      <c r="A30" s="2" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="s">
-        <v>46</v>
+      <c r="A31" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="s">
-        <v>47</v>
+      <c r="A32" s="2" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="s">
-        <v>48</v>
+      <c r="A33" s="2" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="s">
-        <v>49</v>
+      <c r="A34" s="2" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="s">
-        <v>50</v>
+      <c r="A35" s="2" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="s">
-        <v>51</v>
+      <c r="A36" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1" t="s">
-        <v>52</v>
+      <c r="A37" s="2" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="s">
-        <v>53</v>
+      <c r="A38" s="2" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1" t="s">
-        <v>54</v>
+      <c r="A39" s="2" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1" t="s">
-        <v>55</v>
+      <c r="A40" s="2" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1" t="s">
-        <v>56</v>
+      <c r="A41" s="2" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1" t="s">
-        <v>57</v>
+      <c r="A42" s="2" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1" t="s">
-        <v>58</v>
+      <c r="A43" s="2" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="1" t="s">
-        <v>59</v>
+      <c r="A44" s="2" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="1" t="s">
-        <v>60</v>
+      <c r="A45" s="2" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="1" t="s">
-        <v>61</v>
+      <c r="A46" s="2" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="1" t="s">
-        <v>62</v>
+      <c r="A47" s="2" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="1" t="s">
-        <v>63</v>
+      <c r="A48" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="1" t="s">
-        <v>64</v>
+      <c r="A49" s="2" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="1" t="s">
-        <v>65</v>
+      <c r="A50" s="2" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="1" t="s">
-        <v>66</v>
+      <c r="A51" s="2" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="1" t="s">
-        <v>67</v>
+      <c r="A52" s="2" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="1" t="s">
-        <v>68</v>
+      <c r="A53" s="2" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -14108,7 +14104,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -14118,25 +14114,22 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.53"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>209</v>
+      <c r="A1" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>69</v>
+      <c r="A2" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0</v>
@@ -14146,8 +14139,8 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>70</v>
+      <c r="A3" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -14157,8 +14150,8 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>71</v>
+      <c r="A4" s="2" t="s">
+        <v>73</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0</v>
@@ -14168,8 +14161,8 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>72</v>
+      <c r="A5" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -14179,8 +14172,8 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>73</v>
+      <c r="A6" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -14190,8 +14183,8 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>74</v>
+      <c r="A7" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0</v>
@@ -14201,8 +14194,8 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>75</v>
+      <c r="A8" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -14212,8 +14205,8 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>76</v>
+      <c r="A9" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0</v>
@@ -14223,8 +14216,8 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>77</v>
+      <c r="A10" s="2" t="s">
+        <v>79</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0</v>
@@ -14234,8 +14227,8 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>78</v>
+      <c r="A11" s="2" t="s">
+        <v>80</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0</v>
@@ -14245,8 +14238,8 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>79</v>
+      <c r="A12" s="2" t="s">
+        <v>81</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -14256,8 +14249,8 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>80</v>
+      <c r="A13" s="2" t="s">
+        <v>82</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0</v>
@@ -14267,8 +14260,8 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>81</v>
+      <c r="A14" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0</v>
@@ -14278,8 +14271,8 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>82</v>
+      <c r="A15" s="2" t="s">
+        <v>84</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0</v>
@@ -14289,8 +14282,8 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
-        <v>83</v>
+      <c r="A16" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0</v>
@@ -14300,8 +14293,8 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
-        <v>84</v>
+      <c r="A17" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0</v>
@@ -14311,8 +14304,8 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
-        <v>85</v>
+      <c r="A18" s="2" t="s">
+        <v>87</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0</v>
@@ -14322,8 +14315,8 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
-        <v>86</v>
+      <c r="A19" s="2" t="s">
+        <v>88</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0</v>
@@ -14333,8 +14326,8 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
-        <v>87</v>
+      <c r="A20" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0</v>
@@ -14344,8 +14337,8 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
-        <v>88</v>
+      <c r="A21" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0</v>
@@ -14355,8 +14348,8 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="s">
-        <v>89</v>
+      <c r="A22" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>0</v>
@@ -14366,8 +14359,8 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="s">
-        <v>90</v>
+      <c r="A23" s="2" t="s">
+        <v>92</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>0</v>
@@ -14377,8 +14370,8 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="s">
-        <v>91</v>
+      <c r="A24" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>0</v>
@@ -14388,8 +14381,8 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="s">
-        <v>92</v>
+      <c r="A25" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>0</v>
@@ -14399,8 +14392,8 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="s">
-        <v>93</v>
+      <c r="A26" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>0</v>
@@ -14410,8 +14403,8 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="s">
-        <v>94</v>
+      <c r="A27" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>0</v>
@@ -14421,8 +14414,8 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="s">
-        <v>95</v>
+      <c r="A28" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>0</v>
@@ -14432,8 +14425,8 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="s">
-        <v>96</v>
+      <c r="A29" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>0</v>
@@ -14443,8 +14436,8 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="s">
-        <v>97</v>
+      <c r="A30" s="2" t="s">
+        <v>99</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>0</v>
@@ -14454,8 +14447,8 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="s">
-        <v>98</v>
+      <c r="A31" s="2" t="s">
+        <v>100</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>0</v>
@@ -14465,8 +14458,8 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="s">
-        <v>99</v>
+      <c r="A32" s="2" t="s">
+        <v>101</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>0</v>
@@ -14476,8 +14469,8 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="s">
-        <v>100</v>
+      <c r="A33" s="2" t="s">
+        <v>102</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>0</v>
@@ -14487,8 +14480,8 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="s">
-        <v>101</v>
+      <c r="A34" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>0</v>
@@ -14498,8 +14491,8 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="s">
-        <v>102</v>
+      <c r="A35" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>0</v>
@@ -14509,8 +14502,8 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="s">
-        <v>103</v>
+      <c r="A36" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>0</v>
@@ -14520,8 +14513,8 @@
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1" t="s">
-        <v>104</v>
+      <c r="A37" s="2" t="s">
+        <v>106</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>0</v>
@@ -14531,8 +14524,8 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="s">
-        <v>105</v>
+      <c r="A38" s="2" t="s">
+        <v>107</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>0</v>
@@ -14542,8 +14535,8 @@
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1" t="s">
-        <v>106</v>
+      <c r="A39" s="2" t="s">
+        <v>108</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>0</v>
@@ -14553,8 +14546,8 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1" t="s">
-        <v>107</v>
+      <c r="A40" s="2" t="s">
+        <v>109</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>0</v>
@@ -14564,8 +14557,8 @@
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1" t="s">
-        <v>108</v>
+      <c r="A41" s="2" t="s">
+        <v>110</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>0</v>
@@ -14575,8 +14568,8 @@
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1" t="s">
-        <v>109</v>
+      <c r="A42" s="2" t="s">
+        <v>111</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>0</v>
@@ -14586,8 +14579,8 @@
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1" t="s">
-        <v>110</v>
+      <c r="A43" s="2" t="s">
+        <v>112</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>0</v>
@@ -14597,8 +14590,8 @@
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="1" t="s">
-        <v>111</v>
+      <c r="A44" s="2" t="s">
+        <v>113</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>0</v>
@@ -14608,8 +14601,8 @@
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="1" t="s">
-        <v>112</v>
+      <c r="A45" s="2" t="s">
+        <v>114</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>0</v>
@@ -14619,8 +14612,8 @@
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="1" t="s">
-        <v>113</v>
+      <c r="A46" s="2" t="s">
+        <v>115</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>0</v>
@@ -14630,8 +14623,8 @@
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="1" t="s">
-        <v>114</v>
+      <c r="A47" s="2" t="s">
+        <v>116</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>0</v>
@@ -14641,8 +14634,8 @@
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="1" t="s">
-        <v>115</v>
+      <c r="A48" s="2" t="s">
+        <v>117</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>0</v>
@@ -14652,8 +14645,8 @@
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="1" t="s">
-        <v>116</v>
+      <c r="A49" s="2" t="s">
+        <v>118</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>0</v>
@@ -14663,8 +14656,8 @@
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="1" t="s">
-        <v>117</v>
+      <c r="A50" s="2" t="s">
+        <v>119</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>0</v>
@@ -14685,7 +14678,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -14695,26 +14688,25 @@
       <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1021" min="1" style="0" width="8.53"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1022" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1022" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>211</v>
+      <c r="A1" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>69</v>
+      <c r="A2" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>6140</v>
@@ -14724,8 +14716,8 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>70</v>
+      <c r="A3" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>630</v>
@@ -14735,8 +14727,8 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>71</v>
+      <c r="A4" s="2" t="s">
+        <v>73</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>630</v>
@@ -14746,8 +14738,8 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>72</v>
+      <c r="A5" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>4790</v>
@@ -14757,8 +14749,8 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>73</v>
+      <c r="A6" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>4790</v>
@@ -14768,8 +14760,8 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>74</v>
+      <c r="A7" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>720</v>
@@ -14779,8 +14771,8 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>75</v>
+      <c r="A8" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>720</v>
@@ -14790,8 +14782,8 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>76</v>
+      <c r="A9" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>360</v>
@@ -14801,8 +14793,8 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>77</v>
+      <c r="A10" s="2" t="s">
+        <v>79</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>360</v>
@@ -14812,8 +14804,8 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>78</v>
+      <c r="A11" s="2" t="s">
+        <v>80</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>5510</v>
@@ -14823,8 +14815,8 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>79</v>
+      <c r="A12" s="2" t="s">
+        <v>81</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>720</v>
@@ -14834,8 +14826,8 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>80</v>
+      <c r="A13" s="2" t="s">
+        <v>82</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>585</v>
@@ -14845,8 +14837,8 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>81</v>
+      <c r="A14" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>292.5</v>
@@ -14856,8 +14848,8 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>82</v>
+      <c r="A15" s="2" t="s">
+        <v>84</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>292.5</v>
@@ -14867,8 +14859,8 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
-        <v>83</v>
+      <c r="A16" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>1170</v>
@@ -14878,8 +14870,8 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
-        <v>84</v>
+      <c r="A17" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>295</v>
@@ -14889,8 +14881,8 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
-        <v>85</v>
+      <c r="A18" s="2" t="s">
+        <v>87</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>295</v>
@@ -14900,8 +14892,8 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
-        <v>86</v>
+      <c r="A19" s="2" t="s">
+        <v>88</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>440</v>
@@ -14911,8 +14903,8 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
-        <v>87</v>
+      <c r="A20" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>150</v>
@@ -14922,8 +14914,8 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
-        <v>88</v>
+      <c r="A21" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>150</v>
@@ -14933,8 +14925,8 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="s">
-        <v>89</v>
+      <c r="A22" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>10</v>
@@ -14944,8 +14936,8 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="s">
-        <v>90</v>
+      <c r="A23" s="2" t="s">
+        <v>92</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>150</v>
@@ -14955,8 +14947,8 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="s">
-        <v>91</v>
+      <c r="A24" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>6110</v>
@@ -14966,8 +14958,8 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="s">
-        <v>92</v>
+      <c r="A25" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>6110</v>
@@ -14977,8 +14969,8 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="s">
-        <v>93</v>
+      <c r="A26" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>570</v>
@@ -14988,8 +14980,8 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="s">
-        <v>94</v>
+      <c r="A27" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>460</v>
@@ -14999,8 +14991,8 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="s">
-        <v>95</v>
+      <c r="A28" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>460</v>
@@ -15010,8 +15002,8 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="s">
-        <v>96</v>
+      <c r="A29" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>460</v>
@@ -15021,8 +15013,8 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="s">
-        <v>97</v>
+      <c r="A30" s="2" t="s">
+        <v>99</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>5110</v>
@@ -15032,8 +15024,8 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="s">
-        <v>98</v>
+      <c r="A31" s="2" t="s">
+        <v>100</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>5110</v>
@@ -15043,8 +15035,8 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="s">
-        <v>99</v>
+      <c r="A32" s="2" t="s">
+        <v>101</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>4360</v>
@@ -15054,8 +15046,8 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="s">
-        <v>100</v>
+      <c r="A33" s="2" t="s">
+        <v>102</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>4360</v>
@@ -15065,8 +15057,8 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="s">
-        <v>101</v>
+      <c r="A34" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>3890</v>
@@ -15076,8 +15068,8 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="s">
-        <v>102</v>
+      <c r="A35" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>700</v>
@@ -15087,8 +15079,8 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="s">
-        <v>103</v>
+      <c r="A36" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>700</v>
@@ -15098,8 +15090,8 @@
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1" t="s">
-        <v>104</v>
+      <c r="A37" s="2" t="s">
+        <v>106</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>2230</v>
@@ -15109,8 +15101,8 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="s">
-        <v>105</v>
+      <c r="A38" s="2" t="s">
+        <v>107</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>5337.5</v>
@@ -15120,8 +15112,8 @@
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1" t="s">
-        <v>106</v>
+      <c r="A39" s="2" t="s">
+        <v>108</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>312.5</v>
@@ -15131,8 +15123,8 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1" t="s">
-        <v>107</v>
+      <c r="A40" s="2" t="s">
+        <v>109</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>10000</v>
@@ -15142,8 +15134,8 @@
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1" t="s">
-        <v>108</v>
+      <c r="A41" s="2" t="s">
+        <v>110</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>470</v>
@@ -15153,8 +15145,8 @@
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1" t="s">
-        <v>109</v>
+      <c r="A42" s="2" t="s">
+        <v>111</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>700</v>
@@ -15164,8 +15156,8 @@
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1" t="s">
-        <v>110</v>
+      <c r="A43" s="2" t="s">
+        <v>112</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>30</v>
@@ -15175,8 +15167,8 @@
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="1" t="s">
-        <v>111</v>
+      <c r="A44" s="2" t="s">
+        <v>113</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>20</v>
@@ -15186,8 +15178,8 @@
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="1" t="s">
-        <v>112</v>
+      <c r="A45" s="2" t="s">
+        <v>114</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>290</v>
@@ -15197,8 +15189,8 @@
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="1" t="s">
-        <v>113</v>
+      <c r="A46" s="2" t="s">
+        <v>115</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>10</v>
@@ -15208,8 +15200,8 @@
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="1" t="s">
-        <v>114</v>
+      <c r="A47" s="2" t="s">
+        <v>116</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>90</v>
@@ -15219,8 +15211,8 @@
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="1" t="s">
-        <v>115</v>
+      <c r="A48" s="2" t="s">
+        <v>117</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>140</v>
@@ -15230,8 +15222,8 @@
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="1" t="s">
-        <v>116</v>
+      <c r="A49" s="2" t="s">
+        <v>118</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>50</v>
@@ -15241,8 +15233,8 @@
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="1" t="s">
-        <v>117</v>
+      <c r="A50" s="2" t="s">
+        <v>119</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>750</v>
